--- a/torneo-basket-32-squadre-8-gironi.xlsx
+++ b/torneo-basket-32-squadre-8-gironi.xlsx
@@ -577,139 +577,139 @@
     <t xml:space="preserve">A3</t>
   </si>
   <si>
+    <t xml:space="preserve">1-16/4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-32/8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-32/7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1</t>
+  </si>
+  <si>
     <t xml:space="preserve">1-16/7</t>
   </si>
   <si>
-    <t xml:space="preserve">2A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17-32/8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17-32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17-32/7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1</t>
+    <t xml:space="preserve">1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-16/3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-32/6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-32/5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1</t>
   </si>
   <si>
     <t xml:space="preserve">1-16/6</t>
   </si>
   <si>
-    <t xml:space="preserve">1B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B2</t>
+    <t xml:space="preserve">1E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-16/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-32/4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-32/3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1</t>
   </si>
   <si>
     <t xml:space="preserve">1-16/5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17-32/6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17-32/5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-16/4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-16/3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17-32/4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17-32/3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-16/2</t>
   </si>
   <si>
     <t xml:space="preserve">1F</t>
@@ -8956,7 +8956,7 @@
   <dimension ref="A1:BR66"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AP1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AU4" activeCellId="0" sqref="AU4"/>
+      <selection pane="topLeft" activeCell="AU17" activeCellId="0" sqref="AU17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22052,8 +22052,8 @@
   </sheetPr>
   <dimension ref="A1:DG52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z11" activeCellId="0" sqref="Z11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T10" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AJ21" activeCellId="0" sqref="AJ21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23869,7 +23869,7 @@
       </c>
       <c r="T11" s="195" t="str">
         <f aca="false">TEXT(VLOOKUP(T12,A_5_INPUT_DATE_E_RISULTATI_2A_FASE,8,FALSE()),"GGG G MMM")&amp;" "&amp;TEXT(VLOOKUP(T12,A_5_INPUT_DATE_E_RISULTATI_2A_FASE,9,FALSE()),"h:mm")&amp;" ("&amp;VLOOKUP(T12,A_5_INPUT_DATE_E_RISULTATI_2A_FASE,11,FALSE())&amp;")"</f>
-        <v>gio 10 giu 9:00 (Cristo Re 2)</v>
+        <v>gio 10 giu 11:00 (Cristo Re 1)</v>
       </c>
       <c r="U11" s="177"/>
       <c r="V11" s="199"/>
@@ -24034,19 +24034,19 @@
       </c>
       <c r="T12" s="187" t="n">
         <f aca="false">VLOOKUP("1-16/7",B_PARTITE_2A_FASE_PER_CODICE,2,FALSE())</f>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="U12" s="201" t="str">
         <f aca="false">VLOOKUP("1-16/7",B_PARTITE_2A_FASE_PER_CODICE,7,FALSE())</f>
-        <v>Pantere</v>
+        <v>Giaguari</v>
       </c>
       <c r="V12" s="189" t="n">
         <f aca="false">VLOOKUP("1-16/7",B_PARTITE_2A_FASE_PER_CODICE,9,FALSE())</f>
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="W12" s="202" t="str">
         <f aca="false">VLOOKUP("1-16/7",B_PARTITE_2A_FASE_PER_CODICE,5,FALSE())</f>
-        <v>2A</v>
+        <v>1B</v>
       </c>
       <c r="X12" s="147"/>
       <c r="Y12" s="147"/>
@@ -24218,15 +24218,15 @@
       <c r="T13" s="187"/>
       <c r="U13" s="206" t="str">
         <f aca="false">VLOOKUP("1-16/7",B_PARTITE_2A_FASE_PER_CODICE,8,FALSE())</f>
-        <v>Giraffe</v>
+        <v>Aquile</v>
       </c>
       <c r="V13" s="193" t="n">
         <f aca="false">VLOOKUP("1-16/7",B_PARTITE_2A_FASE_PER_CODICE,10,FALSE())</f>
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="W13" s="190" t="str">
         <f aca="false">VLOOKUP("1-16/7",B_PARTITE_2A_FASE_PER_CODICE,6,FALSE())</f>
-        <v>1C</v>
+        <v>2D</v>
       </c>
       <c r="X13" s="147"/>
       <c r="Y13" s="147"/>
@@ -24595,7 +24595,7 @@
       </c>
       <c r="T15" s="195" t="str">
         <f aca="false">TEXT(VLOOKUP(T16,A_5_INPUT_DATE_E_RISULTATI_2A_FASE,8,FALSE()),"GGG G MMM")&amp;" "&amp;TEXT(VLOOKUP(T16,A_5_INPUT_DATE_E_RISULTATI_2A_FASE,9,FALSE()),"h:mm")&amp;" ("&amp;VLOOKUP(T16,A_5_INPUT_DATE_E_RISULTATI_2A_FASE,11,FALSE())&amp;")"</f>
-        <v>gio 10 giu 11:00 (Cristo Re 1)</v>
+        <v>gio 10 giu 15:30 (Cristo Re 1)</v>
       </c>
       <c r="U15" s="177"/>
       <c r="V15" s="199"/>
@@ -24784,19 +24784,19 @@
       </c>
       <c r="T16" s="187" t="n">
         <f aca="false">VLOOKUP("1-16/6",B_PARTITE_2A_FASE_PER_CODICE,2,FALSE())</f>
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="U16" s="201" t="str">
         <f aca="false">VLOOKUP("1-16/6",B_PARTITE_2A_FASE_PER_CODICE,7,FALSE())</f>
-        <v>Giaguari</v>
+        <v>Bisonti</v>
       </c>
       <c r="V16" s="189" t="n">
         <f aca="false">VLOOKUP("1-16/6",B_PARTITE_2A_FASE_PER_CODICE,9,FALSE())</f>
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="W16" s="190" t="str">
         <f aca="false">VLOOKUP("1-16/6",B_PARTITE_2A_FASE_PER_CODICE,5,FALSE())</f>
-        <v>1B</v>
+        <v>1E</v>
       </c>
       <c r="X16" s="147"/>
       <c r="Y16" s="147"/>
@@ -24974,15 +24974,15 @@
       <c r="T17" s="187"/>
       <c r="U17" s="206" t="str">
         <f aca="false">VLOOKUP("1-16/6",B_PARTITE_2A_FASE_PER_CODICE,8,FALSE())</f>
-        <v>Aquile</v>
+        <v>Gorilla</v>
       </c>
       <c r="V17" s="193" t="n">
         <f aca="false">VLOOKUP("1-16/6",B_PARTITE_2A_FASE_PER_CODICE,10,FALSE())</f>
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="W17" s="194" t="str">
         <f aca="false">VLOOKUP("1-16/6",B_PARTITE_2A_FASE_PER_CODICE,6,FALSE())</f>
-        <v>2D</v>
+        <v>2G</v>
       </c>
       <c r="X17" s="147"/>
       <c r="Y17" s="195" t="str">
@@ -25343,7 +25343,7 @@
       </c>
       <c r="T19" s="195" t="str">
         <f aca="false">TEXT(VLOOKUP(T20,A_5_INPUT_DATE_E_RISULTATI_2A_FASE,8,FALSE()),"GGG G MMM")&amp;" "&amp;TEXT(VLOOKUP(T20,A_5_INPUT_DATE_E_RISULTATI_2A_FASE,9,FALSE()),"h:mm")&amp;" ("&amp;VLOOKUP(T20,A_5_INPUT_DATE_E_RISULTATI_2A_FASE,11,FALSE())&amp;")"</f>
-        <v>gio 10 giu 11:00 (Cristo Re 2)</v>
+        <v>gio 10 giu 17:00 (Cristo Re 1)</v>
       </c>
       <c r="U19" s="177"/>
       <c r="V19" s="199"/>
@@ -25532,19 +25532,19 @@
       </c>
       <c r="T20" s="187" t="n">
         <f aca="false">VLOOKUP("1-16/5",B_PARTITE_2A_FASE_PER_CODICE,2,FALSE())</f>
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="U20" s="201" t="str">
         <f aca="false">VLOOKUP("1-16/5",B_PARTITE_2A_FASE_PER_CODICE,7,FALSE())</f>
-        <v>Coccodrilli</v>
+        <v>Balene</v>
       </c>
       <c r="V20" s="189" t="n">
         <f aca="false">VLOOKUP("1-16/5",B_PARTITE_2A_FASE_PER_CODICE,9,FALSE())</f>
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="W20" s="202" t="str">
         <f aca="false">VLOOKUP("1-16/5",B_PARTITE_2A_FASE_PER_CODICE,5,FALSE())</f>
-        <v>1D</v>
+        <v>1F</v>
       </c>
       <c r="X20" s="147"/>
       <c r="Y20" s="147"/>
@@ -25725,15 +25725,15 @@
       <c r="T21" s="187"/>
       <c r="U21" s="206" t="str">
         <f aca="false">VLOOKUP("1-16/5",B_PARTITE_2A_FASE_PER_CODICE,8,FALSE())</f>
-        <v>Puma</v>
+        <v>Tonni</v>
       </c>
       <c r="V21" s="193" t="n">
         <f aca="false">VLOOKUP("1-16/5",B_PARTITE_2A_FASE_PER_CODICE,10,FALSE())</f>
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="W21" s="190" t="str">
         <f aca="false">VLOOKUP("1-16/5",B_PARTITE_2A_FASE_PER_CODICE,6,FALSE())</f>
-        <v>2B</v>
+        <v>2H</v>
       </c>
       <c r="X21" s="147"/>
       <c r="Y21" s="147"/>
@@ -26100,7 +26100,7 @@
       </c>
       <c r="T23" s="222" t="str">
         <f aca="false">TEXT(VLOOKUP(T24,A_5_INPUT_DATE_E_RISULTATI_2A_FASE,8,FALSE()),"GGG G MMM")&amp;" "&amp;TEXT(VLOOKUP(T24,A_5_INPUT_DATE_E_RISULTATI_2A_FASE,9,FALSE()),"h:mm")&amp;" ("&amp;VLOOKUP(T24,A_5_INPUT_DATE_E_RISULTATI_2A_FASE,11,FALSE())&amp;")"</f>
-        <v>gio 10 giu 15:30 (Cristo Re 1)</v>
+        <v>gio 10 giu 9:00 (Cristo Re 2)</v>
       </c>
       <c r="U23" s="222"/>
       <c r="V23" s="222"/>
@@ -26280,19 +26280,19 @@
       </c>
       <c r="T24" s="187" t="n">
         <f aca="false">VLOOKUP("1-16/4",B_PARTITE_2A_FASE_PER_CODICE,2,FALSE())</f>
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="U24" s="201" t="str">
         <f aca="false">VLOOKUP("1-16/4",B_PARTITE_2A_FASE_PER_CODICE,7,FALSE())</f>
-        <v>Bisonti</v>
+        <v>Pantere</v>
       </c>
       <c r="V24" s="189" t="n">
         <f aca="false">VLOOKUP("1-16/4",B_PARTITE_2A_FASE_PER_CODICE,9,FALSE())</f>
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="W24" s="190" t="str">
         <f aca="false">VLOOKUP("1-16/4",B_PARTITE_2A_FASE_PER_CODICE,5,FALSE())</f>
-        <v>1E</v>
+        <v>2A</v>
       </c>
       <c r="X24" s="147"/>
       <c r="Y24" s="147"/>
@@ -26470,15 +26470,15 @@
       <c r="T25" s="187"/>
       <c r="U25" s="206" t="str">
         <f aca="false">VLOOKUP("1-16/4",B_PARTITE_2A_FASE_PER_CODICE,8,FALSE())</f>
-        <v>Gorilla</v>
+        <v>Giraffe</v>
       </c>
       <c r="V25" s="193" t="n">
         <f aca="false">VLOOKUP("1-16/4",B_PARTITE_2A_FASE_PER_CODICE,10,FALSE())</f>
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="W25" s="194" t="str">
         <f aca="false">VLOOKUP("1-16/4",B_PARTITE_2A_FASE_PER_CODICE,6,FALSE())</f>
-        <v>2G</v>
+        <v>1C</v>
       </c>
       <c r="X25" s="147"/>
       <c r="Y25" s="207" t="str">
@@ -26847,7 +26847,7 @@
       </c>
       <c r="T27" s="195" t="str">
         <f aca="false">TEXT(VLOOKUP(T28,A_5_INPUT_DATE_E_RISULTATI_2A_FASE,8,FALSE()),"GGG G MMM")&amp;" "&amp;TEXT(VLOOKUP(T28,A_5_INPUT_DATE_E_RISULTATI_2A_FASE,9,FALSE()),"h:mm")&amp;" ("&amp;VLOOKUP(T28,A_5_INPUT_DATE_E_RISULTATI_2A_FASE,11,FALSE())&amp;")"</f>
-        <v>gio 10 giu 15:30 (Cristo Re 2)</v>
+        <v>gio 10 giu 11:00 (Cristo Re 2)</v>
       </c>
       <c r="U27" s="177"/>
       <c r="V27" s="199"/>
@@ -27028,19 +27028,19 @@
       </c>
       <c r="T28" s="187" t="n">
         <f aca="false">VLOOKUP("1-16/3",B_PARTITE_2A_FASE_PER_CODICE,2,FALSE())</f>
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="U28" s="227" t="str">
         <f aca="false">VLOOKUP("1-16/3",B_PARTITE_2A_FASE_PER_CODICE,7,FALSE())</f>
-        <v>Istrici</v>
+        <v>Coccodrilli</v>
       </c>
       <c r="V28" s="189" t="n">
         <f aca="false">VLOOKUP("1-16/3",B_PARTITE_2A_FASE_PER_CODICE,9,FALSE())</f>
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="W28" s="202" t="str">
         <f aca="false">VLOOKUP("1-16/3",B_PARTITE_2A_FASE_PER_CODICE,5,FALSE())</f>
-        <v>1G</v>
+        <v>1D</v>
       </c>
       <c r="X28" s="147"/>
       <c r="Y28" s="147"/>
@@ -27218,15 +27218,15 @@
       <c r="T29" s="187"/>
       <c r="U29" s="206" t="str">
         <f aca="false">VLOOKUP("1-16/3",B_PARTITE_2A_FASE_PER_CODICE,8,FALSE())</f>
-        <v>Bufali</v>
+        <v>Puma</v>
       </c>
       <c r="V29" s="193" t="n">
         <f aca="false">VLOOKUP("1-16/3",B_PARTITE_2A_FASE_PER_CODICE,10,FALSE())</f>
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="W29" s="190" t="str">
         <f aca="false">VLOOKUP("1-16/3",B_PARTITE_2A_FASE_PER_CODICE,6,FALSE())</f>
-        <v>2E</v>
+        <v>2B</v>
       </c>
       <c r="X29" s="147"/>
       <c r="Y29" s="147"/>
@@ -27595,7 +27595,7 @@
       </c>
       <c r="T31" s="195" t="str">
         <f aca="false">TEXT(VLOOKUP(T32,A_5_INPUT_DATE_E_RISULTATI_2A_FASE,8,FALSE()),"GGG G MMM")&amp;" "&amp;TEXT(VLOOKUP(T32,A_5_INPUT_DATE_E_RISULTATI_2A_FASE,9,FALSE()),"h:mm")&amp;" ("&amp;VLOOKUP(T32,A_5_INPUT_DATE_E_RISULTATI_2A_FASE,11,FALSE())&amp;")"</f>
-        <v>gio 10 giu 17:00 (Cristo Re 1)</v>
+        <v>gio 10 giu 15:30 (Cristo Re 2)</v>
       </c>
       <c r="U31" s="177"/>
       <c r="V31" s="199"/>
@@ -27784,19 +27784,19 @@
       </c>
       <c r="T32" s="187" t="n">
         <f aca="false">VLOOKUP("1-16/2",B_PARTITE_2A_FASE_PER_CODICE,2,FALSE())</f>
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U32" s="201" t="str">
         <f aca="false">VLOOKUP("1-16/2",B_PARTITE_2A_FASE_PER_CODICE,7,FALSE())</f>
-        <v>Balene</v>
+        <v>Istrici</v>
       </c>
       <c r="V32" s="189" t="n">
         <f aca="false">VLOOKUP("1-16/2",B_PARTITE_2A_FASE_PER_CODICE,9,FALSE())</f>
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="W32" s="190" t="str">
         <f aca="false">VLOOKUP("1-16/2",B_PARTITE_2A_FASE_PER_CODICE,5,FALSE())</f>
-        <v>1F</v>
+        <v>1G</v>
       </c>
       <c r="X32" s="147"/>
       <c r="Y32" s="147"/>
@@ -27966,15 +27966,15 @@
       <c r="T33" s="187"/>
       <c r="U33" s="206" t="str">
         <f aca="false">VLOOKUP("1-16/2",B_PARTITE_2A_FASE_PER_CODICE,8,FALSE())</f>
-        <v>Tonni</v>
+        <v>Bufali</v>
       </c>
       <c r="V33" s="193" t="n">
         <f aca="false">VLOOKUP("1-16/2",B_PARTITE_2A_FASE_PER_CODICE,10,FALSE())</f>
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="W33" s="194" t="str">
         <f aca="false">VLOOKUP("1-16/2",B_PARTITE_2A_FASE_PER_CODICE,6,FALSE())</f>
-        <v>2H</v>
+        <v>2E</v>
       </c>
       <c r="X33" s="147"/>
       <c r="Y33" s="207" t="str">

--- a/torneo-basket-32-squadre-8-gironi.xlsx
+++ b/torneo-basket-32-squadre-8-gironi.xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="414">
   <si>
     <t>DATI_TORNEO</t>
   </si>
@@ -122,31 +122,19 @@
     <t>A</t>
   </si>
   <si>
-    <t>Cristo Re 1</t>
-  </si>
-  <si>
     <t>STAGIONE</t>
   </si>
   <si>
     <t>Pantere</t>
   </si>
   <si>
-    <t>Cristo Re 2</t>
-  </si>
-  <si>
     <t>Tigri</t>
   </si>
   <si>
-    <t>Basket Giovane</t>
-  </si>
-  <si>
     <t>Istruzioni</t>
   </si>
   <si>
     <t>Ghepardi</t>
-  </si>
-  <si>
-    <t>Nuova Scuola</t>
   </si>
   <si>
     <t>Giaguari</t>
@@ -1510,6 +1498,9 @@
   <si>
     <t>Finale</t>
   </si>
+  <si>
+    <t>Classifica Finale</t>
+  </si>
 </sst>
 </file>
 
@@ -1522,7 +1513,7 @@
     <numFmt numFmtId="167" formatCode="&quot;VERO&quot;;&quot;VERO&quot;;&quot;FALSO&quot;"/>
     <numFmt numFmtId="168" formatCode="ddd\ d\ mmm"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1628,8 +1619,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="20"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1645,7 +1643,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFA500"/>
-        <bgColor rgb="FFFFCC00"/>
+        <bgColor rgb="FFFFD700"/>
       </patternFill>
     </fill>
     <fill>
@@ -1750,8 +1748,14 @@
         <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD700"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="50">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -2360,6 +2364,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3366FF"/>
       </left>
@@ -2405,7 +2435,7 @@
       <protection hidden="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="247">
+  <cellXfs count="249">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2535,7 +2565,7 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0" hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
@@ -3296,7 +3326,7 @@
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
@@ -3333,6 +3363,14 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -3810,7 +3848,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFD700"/>
       <rgbColor rgb="FFFFA500"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF4472C4"/>
@@ -4224,13 +4262,14 @@
       <c r="K3" s="24">
         <v>1</v>
       </c>
-      <c r="L3" s="23" t="s">
-        <v>14</v>
+      <c r="L3" s="23" t="str">
+        <f t="shared" ref="L3:L34" si="1">"CAMPO "&amp;ROMAN(K3)</f>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="30">
         <v>2021</v>
@@ -4243,7 +4282,7 @@
         <v>A2</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="32"/>
       <c r="H4" s="33" t="s">
@@ -4255,8 +4294,9 @@
       <c r="K4" s="31">
         <v>2</v>
       </c>
-      <c r="L4" s="35" t="s">
-        <v>17</v>
+      <c r="L4" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -4268,7 +4308,7 @@
         <v>A3</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G5" s="32"/>
       <c r="H5" s="33" t="s">
@@ -4280,13 +4320,14 @@
       <c r="K5" s="31">
         <v>3</v>
       </c>
-      <c r="L5" s="35" t="s">
-        <v>19</v>
+      <c r="L5" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" s="13"/>
       <c r="D6" s="31">
@@ -4297,7 +4338,7 @@
         <v>A4</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G6" s="32"/>
       <c r="H6" s="33" t="s">
@@ -4309,8 +4350,9 @@
       <c r="K6" s="31">
         <v>4</v>
       </c>
-      <c r="L6" s="35" t="s">
-        <v>22</v>
+      <c r="L6" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -4322,11 +4364,11 @@
         <v>B1</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="33" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I7" s="34">
         <v>1</v>
@@ -4335,13 +4377,13 @@
         <v>5</v>
       </c>
       <c r="L7" s="35" t="str">
-        <f t="shared" ref="L7:L34" si="1">"CAMPO "&amp;ROMAN(K7)</f>
+        <f t="shared" si="1"/>
         <v>CAMPO V</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B8" s="12"/>
       <c r="D8" s="31">
@@ -4352,11 +4394,11 @@
         <v>B2</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="33" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I8" s="34">
         <v>2</v>
@@ -4380,11 +4422,11 @@
         <v>B3</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G9" s="32"/>
       <c r="H9" s="33" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I9" s="34">
         <v>3</v>
@@ -4408,11 +4450,11 @@
         <v>B4</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G10" s="32"/>
       <c r="H10" s="33" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I10" s="34">
         <v>4</v>
@@ -4434,11 +4476,11 @@
         <v>C1</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G11" s="32"/>
       <c r="H11" s="33" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I11" s="34">
         <v>1</v>
@@ -4453,7 +4495,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B12" s="11"/>
       <c r="D12" s="31">
@@ -4464,11 +4506,11 @@
         <v>C2</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G12" s="32"/>
       <c r="H12" s="33" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I12" s="34">
         <v>2</v>
@@ -4492,11 +4534,11 @@
         <v>C3</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G13" s="32"/>
       <c r="H13" s="33" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I13" s="34">
         <v>3</v>
@@ -4520,11 +4562,11 @@
         <v>C4</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G14" s="32"/>
       <c r="H14" s="33" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I14" s="34">
         <v>4</v>
@@ -4548,11 +4590,11 @@
         <v>D1</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G15" s="32"/>
       <c r="H15" s="33" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I15" s="34">
         <v>1</v>
@@ -4574,11 +4616,11 @@
         <v>D2</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G16" s="32"/>
       <c r="H16" s="33" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I16" s="34">
         <v>2</v>
@@ -4593,7 +4635,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B17" s="10"/>
       <c r="D17" s="31">
@@ -4604,11 +4646,11 @@
         <v>D3</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G17" s="32"/>
       <c r="H17" s="33" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I17" s="34">
         <v>3</v>
@@ -4632,11 +4674,11 @@
         <v>D4</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G18" s="32"/>
       <c r="H18" s="33" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I18" s="34">
         <v>4</v>
@@ -4660,11 +4702,11 @@
         <v>E1</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G19" s="32"/>
       <c r="H19" s="33" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I19" s="34">
         <v>1</v>
@@ -4686,11 +4728,11 @@
         <v>E2</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G20" s="32"/>
       <c r="H20" s="33" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I20" s="34">
         <v>2</v>
@@ -4705,7 +4747,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B21" s="10"/>
       <c r="D21" s="31">
@@ -4716,11 +4758,11 @@
         <v>E3</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G21" s="32"/>
       <c r="H21" s="33" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I21" s="34">
         <v>3</v>
@@ -4744,11 +4786,11 @@
         <v>E4</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G22" s="32"/>
       <c r="H22" s="33" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I22" s="34">
         <v>4</v>
@@ -4772,11 +4814,11 @@
         <v>F1</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G23" s="32"/>
       <c r="H23" s="33" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I23" s="34">
         <v>1</v>
@@ -4798,11 +4840,11 @@
         <v>F2</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G24" s="32"/>
       <c r="H24" s="33" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I24" s="34">
         <v>2</v>
@@ -4824,11 +4866,11 @@
         <v>F3</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G25" s="32"/>
       <c r="H25" s="33" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I25" s="34">
         <v>3</v>
@@ -4850,11 +4892,11 @@
         <v>F4</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G26" s="32"/>
       <c r="H26" s="33" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I26" s="34">
         <v>4</v>
@@ -4876,11 +4918,11 @@
         <v>G1</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G27" s="32"/>
       <c r="H27" s="33" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I27" s="34">
         <v>1</v>
@@ -4902,11 +4944,11 @@
         <v>G2</v>
       </c>
       <c r="F28" s="32" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G28" s="32"/>
       <c r="H28" s="33" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I28" s="34">
         <v>2</v>
@@ -4928,11 +4970,11 @@
         <v>G3</v>
       </c>
       <c r="F29" s="32" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G29" s="32"/>
       <c r="H29" s="33" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I29" s="34">
         <v>3</v>
@@ -4954,11 +4996,11 @@
         <v>G4</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G30" s="32"/>
       <c r="H30" s="33" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I30" s="34">
         <v>4</v>
@@ -4980,11 +5022,11 @@
         <v>H1</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G31" s="32"/>
       <c r="H31" s="33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I31" s="34">
         <v>1</v>
@@ -5006,11 +5048,11 @@
         <v>H2</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G32" s="32"/>
       <c r="H32" s="33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I32" s="34">
         <v>2</v>
@@ -5032,11 +5074,11 @@
         <v>H3</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G33" s="32"/>
       <c r="H33" s="33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I33" s="34">
         <v>3</v>
@@ -5058,11 +5100,11 @@
         <v>H4</v>
       </c>
       <c r="F34" s="37" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G34" s="37"/>
       <c r="H34" s="38" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I34" s="39">
         <v>4</v>
@@ -5080,96 +5122,96 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B40" s="14"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="42" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B41" s="43" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="44" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="45" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="46" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="47" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="48" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B46" s="43" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="49" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="50" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B48" s="43" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="51" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B49" s="43" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="52" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B50" s="43" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="53" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B51" s="43" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -5260,7 +5302,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -5275,37 +5317,37 @@
     </row>
     <row r="2" spans="1:11" ht="38.25">
       <c r="A2" s="55" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="I2" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="J2" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="K2" s="17" t="s">
         <v>91</v>
-      </c>
-      <c r="H2" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="J2" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5345,7 +5387,7 @@
       </c>
       <c r="K3" s="67" t="str">
         <f t="shared" ref="K3:K50" si="4">VLOOKUP(J3,INPUT_CAMPI,2,0)</f>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5385,7 +5427,7 @@
       </c>
       <c r="K4" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5425,7 +5467,7 @@
       </c>
       <c r="K5" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5465,7 +5507,7 @@
       </c>
       <c r="K6" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5505,7 +5547,7 @@
       </c>
       <c r="K7" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5545,7 +5587,7 @@
       </c>
       <c r="K8" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5585,7 +5627,7 @@
       </c>
       <c r="K9" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5625,7 +5667,7 @@
       </c>
       <c r="K10" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5665,7 +5707,7 @@
       </c>
       <c r="K11" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5705,7 +5747,7 @@
       </c>
       <c r="K12" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5745,7 +5787,7 @@
       </c>
       <c r="K13" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5785,7 +5827,7 @@
       </c>
       <c r="K14" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5825,7 +5867,7 @@
       </c>
       <c r="K15" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5865,7 +5907,7 @@
       </c>
       <c r="K16" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -5905,7 +5947,7 @@
       </c>
       <c r="K17" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -5945,7 +5987,7 @@
       </c>
       <c r="K18" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -5985,7 +6027,7 @@
       </c>
       <c r="K19" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -6025,7 +6067,7 @@
       </c>
       <c r="K20" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -6065,7 +6107,7 @@
       </c>
       <c r="K21" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -6105,7 +6147,7 @@
       </c>
       <c r="K22" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -6145,7 +6187,7 @@
       </c>
       <c r="K23" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -6185,7 +6227,7 @@
       </c>
       <c r="K24" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -6225,7 +6267,7 @@
       </c>
       <c r="K25" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -6265,7 +6307,7 @@
       </c>
       <c r="K26" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -6305,7 +6347,7 @@
       </c>
       <c r="K27" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -6345,7 +6387,7 @@
       </c>
       <c r="K28" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -6385,7 +6427,7 @@
       </c>
       <c r="K29" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -6425,7 +6467,7 @@
       </c>
       <c r="K30" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -6465,7 +6507,7 @@
       </c>
       <c r="K31" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -6505,7 +6547,7 @@
       </c>
       <c r="K32" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -6545,7 +6587,7 @@
       </c>
       <c r="K33" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -6585,7 +6627,7 @@
       </c>
       <c r="K34" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -6625,7 +6667,7 @@
       </c>
       <c r="K35" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -6665,7 +6707,7 @@
       </c>
       <c r="K36" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -6705,7 +6747,7 @@
       </c>
       <c r="K37" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -6745,7 +6787,7 @@
       </c>
       <c r="K38" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -6785,7 +6827,7 @@
       </c>
       <c r="K39" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -6825,7 +6867,7 @@
       </c>
       <c r="K40" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -6865,7 +6907,7 @@
       </c>
       <c r="K41" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -6905,7 +6947,7 @@
       </c>
       <c r="K42" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -6945,7 +6987,7 @@
       </c>
       <c r="K43" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -6985,7 +7027,7 @@
       </c>
       <c r="K44" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -7025,7 +7067,7 @@
       </c>
       <c r="K45" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -7065,7 +7107,7 @@
       </c>
       <c r="K46" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -7105,7 +7147,7 @@
       </c>
       <c r="K47" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -7145,7 +7187,7 @@
       </c>
       <c r="K48" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -7185,7 +7227,7 @@
       </c>
       <c r="K49" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -7225,7 +7267,7 @@
       </c>
       <c r="K50" s="80" t="str">
         <f t="shared" si="4"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
   </sheetData>
@@ -7285,9 +7327,7 @@
   </sheetPr>
   <dimension ref="A1:BL66"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
@@ -7304,7 +7344,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -7319,37 +7359,37 @@
     </row>
     <row r="2" spans="1:11" ht="38.25">
       <c r="A2" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="G2" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="56" t="s">
+      <c r="H2" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="I2" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="J2" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="K2" s="17" t="s">
         <v>91</v>
-      </c>
-      <c r="H2" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="J2" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7389,7 +7429,7 @@
       </c>
       <c r="K3" s="67" t="str">
         <f t="shared" ref="K3:K34" si="4">VLOOKUP(J3,INPUT_CAMPI,2,0)</f>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -7429,7 +7469,7 @@
       </c>
       <c r="K4" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -7469,7 +7509,7 @@
       </c>
       <c r="K5" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -7509,7 +7549,7 @@
       </c>
       <c r="K6" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -7549,7 +7589,7 @@
       </c>
       <c r="K7" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -7589,7 +7629,7 @@
       </c>
       <c r="K8" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -7629,7 +7669,7 @@
       </c>
       <c r="K9" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -7669,7 +7709,7 @@
       </c>
       <c r="K10" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -7709,7 +7749,7 @@
       </c>
       <c r="K11" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -7749,7 +7789,7 @@
       </c>
       <c r="K12" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -7789,7 +7829,7 @@
       </c>
       <c r="K13" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -7829,7 +7869,7 @@
       </c>
       <c r="K14" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -7869,7 +7909,7 @@
       </c>
       <c r="K15" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -7909,7 +7949,7 @@
       </c>
       <c r="K16" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -7949,7 +7989,7 @@
       </c>
       <c r="K17" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -7989,7 +8029,7 @@
       </c>
       <c r="K18" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8029,7 +8069,7 @@
       </c>
       <c r="K19" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -8069,7 +8109,7 @@
       </c>
       <c r="K20" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -8109,7 +8149,7 @@
       </c>
       <c r="K21" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -8149,7 +8189,7 @@
       </c>
       <c r="K22" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -8189,7 +8229,7 @@
       </c>
       <c r="K23" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -8229,7 +8269,7 @@
       </c>
       <c r="K24" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -8269,7 +8309,7 @@
       </c>
       <c r="K25" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -8309,7 +8349,7 @@
       </c>
       <c r="K26" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -8349,7 +8389,7 @@
       </c>
       <c r="K27" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -8389,7 +8429,7 @@
       </c>
       <c r="K28" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -8429,7 +8469,7 @@
       </c>
       <c r="K29" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -8469,7 +8509,7 @@
       </c>
       <c r="K30" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -8509,7 +8549,7 @@
       </c>
       <c r="K31" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -8549,7 +8589,7 @@
       </c>
       <c r="K32" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -8589,7 +8629,7 @@
       </c>
       <c r="K33" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -8629,7 +8669,7 @@
       </c>
       <c r="K34" s="74" t="str">
         <f t="shared" si="4"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -8669,7 +8709,7 @@
       </c>
       <c r="K35" s="74" t="str">
         <f t="shared" ref="K35:K66" si="9">VLOOKUP(J35,INPUT_CAMPI,2,0)</f>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -8709,7 +8749,7 @@
       </c>
       <c r="K36" s="74" t="str">
         <f t="shared" si="9"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -8749,7 +8789,7 @@
       </c>
       <c r="K37" s="74" t="str">
         <f t="shared" si="9"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -8789,7 +8829,7 @@
       </c>
       <c r="K38" s="74" t="str">
         <f t="shared" si="9"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -8829,7 +8869,7 @@
       </c>
       <c r="K39" s="74" t="str">
         <f t="shared" si="9"/>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -8869,7 +8909,7 @@
       </c>
       <c r="K40" s="74" t="str">
         <f t="shared" si="9"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -8909,7 +8949,7 @@
       </c>
       <c r="K41" s="74" t="str">
         <f t="shared" si="9"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -8949,7 +8989,7 @@
       </c>
       <c r="K42" s="74" t="str">
         <f t="shared" si="9"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -8989,7 +9029,7 @@
       </c>
       <c r="K43" s="74" t="str">
         <f t="shared" si="9"/>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -9029,7 +9069,7 @@
       </c>
       <c r="K44" s="74" t="str">
         <f t="shared" si="9"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -9069,7 +9109,7 @@
       </c>
       <c r="K45" s="74" t="str">
         <f t="shared" si="9"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -9109,7 +9149,7 @@
       </c>
       <c r="K46" s="74" t="str">
         <f t="shared" si="9"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -9149,7 +9189,7 @@
       </c>
       <c r="K47" s="74" t="str">
         <f t="shared" si="9"/>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -9189,7 +9229,7 @@
       </c>
       <c r="K48" s="74" t="str">
         <f t="shared" si="9"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -9229,7 +9269,7 @@
       </c>
       <c r="K49" s="74" t="str">
         <f t="shared" si="9"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -9269,7 +9309,7 @@
       </c>
       <c r="K50" s="74" t="str">
         <f t="shared" si="9"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -9309,7 +9349,7 @@
       </c>
       <c r="K51" s="74" t="str">
         <f t="shared" si="9"/>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -9349,7 +9389,7 @@
       </c>
       <c r="K52" s="74" t="str">
         <f t="shared" si="9"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -9389,7 +9429,7 @@
       </c>
       <c r="K53" s="74" t="str">
         <f t="shared" si="9"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -9429,7 +9469,7 @@
       </c>
       <c r="K54" s="74" t="str">
         <f t="shared" si="9"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -9469,7 +9509,7 @@
       </c>
       <c r="K55" s="74" t="str">
         <f t="shared" si="9"/>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -9509,7 +9549,7 @@
       </c>
       <c r="K56" s="74" t="str">
         <f t="shared" si="9"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -9549,7 +9589,7 @@
       </c>
       <c r="K57" s="74" t="str">
         <f t="shared" si="9"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -9589,7 +9629,7 @@
       </c>
       <c r="K58" s="74" t="str">
         <f t="shared" si="9"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -9629,7 +9669,7 @@
       </c>
       <c r="K59" s="74" t="str">
         <f t="shared" si="9"/>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -9669,7 +9709,7 @@
       </c>
       <c r="K60" s="74" t="str">
         <f t="shared" si="9"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -9709,7 +9749,7 @@
       </c>
       <c r="K61" s="74" t="str">
         <f t="shared" si="9"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -9749,7 +9789,7 @@
       </c>
       <c r="K62" s="74" t="str">
         <f t="shared" si="9"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -9789,7 +9829,7 @@
       </c>
       <c r="K63" s="74" t="str">
         <f t="shared" si="9"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -9829,7 +9869,7 @@
       </c>
       <c r="K64" s="74" t="str">
         <f t="shared" si="9"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -9869,7 +9909,7 @@
       </c>
       <c r="K65" s="74" t="str">
         <f t="shared" si="9"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -9909,7 +9949,7 @@
       </c>
       <c r="K66" s="80" t="str">
         <f t="shared" si="9"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
   </sheetData>
@@ -10035,7 +10075,7 @@
   <sheetData>
     <row r="1" spans="1:70">
       <c r="A1" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -10060,7 +10100,7 @@
       <c r="V1" s="9"/>
       <c r="W1" s="9"/>
       <c r="Y1" s="14" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Z1" s="14"/>
       <c r="AA1" s="14"/>
@@ -10083,7 +10123,7 @@
       <c r="AR1" s="14"/>
       <c r="AS1" s="14"/>
       <c r="AU1" s="9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AV1" s="9"/>
       <c r="AW1" s="9"/>
@@ -10111,208 +10151,208 @@
     </row>
     <row r="2" spans="1:70" ht="63.75">
       <c r="A2" s="55" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="K2" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="L2" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="M2" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="I2" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="J2" s="85" t="s">
+      <c r="N2" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="K2" s="85" t="s">
+      <c r="O2" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="56" t="s">
+      <c r="P2" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="M2" s="56" t="s">
+      <c r="Q2" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="N2" s="56" t="s">
+      <c r="R2" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="O2" s="56" t="s">
+      <c r="S2" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="P2" s="56" t="s">
+      <c r="T2" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="Q2" s="56" t="s">
+      <c r="U2" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="R2" s="56" t="s">
+      <c r="V2" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="S2" s="56" t="s">
+      <c r="W2" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="T2" s="56" t="s">
+      <c r="Y2" s="18" t="s">
         <v>115</v>
-      </c>
-      <c r="U2" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="V2" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="W2" s="86" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y2" s="18" t="s">
-        <v>119</v>
       </c>
       <c r="Z2" s="20" t="s">
         <v>8</v>
       </c>
       <c r="AA2" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB2" s="87" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC2" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD2" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE2" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="AB2" s="87" t="s">
+      <c r="AF2" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="AC2" s="19" t="s">
+      <c r="AG2" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="AD2" s="20" t="s">
+      <c r="AH2" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="AE2" s="20" t="s">
+      <c r="AI2" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="AF2" s="20" t="s">
+      <c r="AJ2" s="89" t="s">
         <v>125</v>
       </c>
-      <c r="AG2" s="88" t="s">
+      <c r="AK2" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="AH2" s="89" t="s">
+      <c r="AL2" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="AI2" s="56" t="s">
+      <c r="AM2" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="AJ2" s="89" t="s">
+      <c r="AN2" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="AK2" s="56" t="s">
+      <c r="AO2" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="AL2" s="56" t="s">
+      <c r="AP2" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="AM2" s="56" t="s">
+      <c r="AQ2" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="AN2" s="56" t="s">
+      <c r="AR2" s="90" t="s">
         <v>133</v>
       </c>
-      <c r="AO2" s="56" t="s">
+      <c r="AS2" s="91" t="s">
         <v>134</v>
       </c>
-      <c r="AP2" s="56" t="s">
+      <c r="AU2" s="92" t="s">
         <v>135</v>
       </c>
-      <c r="AQ2" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="AR2" s="90" t="s">
-        <v>137</v>
-      </c>
-      <c r="AS2" s="91" t="s">
-        <v>138</v>
-      </c>
-      <c r="AU2" s="92" t="s">
-        <v>139</v>
-      </c>
       <c r="AV2" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW2" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX2" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="AY2" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="AZ2" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="BA2" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="BB2" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="BC2" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="AW2" s="20" t="s">
+      <c r="BD2" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="AX2" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY2" s="56" t="s">
+      <c r="BE2" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="AZ2" s="56" t="s">
+      <c r="BF2" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="BA2" s="19" t="s">
+      <c r="BG2" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="BB2" s="19" t="s">
+      <c r="BH2" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="BC2" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="BD2" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="BE2" s="85" t="s">
+      <c r="BI2" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="BF2" s="85" t="s">
+      <c r="BJ2" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="BG2" s="56" t="s">
+      <c r="BK2" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="BH2" s="56" t="s">
+      <c r="BL2" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="BI2" s="56" t="s">
+      <c r="BM2" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="BJ2" s="56" t="s">
+      <c r="BN2" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="BK2" s="56" t="s">
+      <c r="BO2" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="BL2" s="56" t="s">
+      <c r="BP2" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="BM2" s="56" t="s">
+      <c r="BQ2" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="BN2" s="56" t="s">
+      <c r="BR2" s="86" t="s">
         <v>114</v>
-      </c>
-      <c r="BO2" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="BP2" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="BQ2" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="BR2" s="86" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:70">
@@ -10326,10 +10366,10 @@
         <v>13</v>
       </c>
       <c r="D3" s="94" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E3" s="94" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F3" s="95" t="str">
         <f t="shared" ref="F3:F50" si="0">IF(B3="Girone",VLOOKUP(D3,SQUADRE_PER_CODICE,2),"ERRORE!")</f>
@@ -10411,7 +10451,7 @@
         <v>13</v>
       </c>
       <c r="AA3" s="94" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AB3" s="100" t="str">
         <f t="shared" ref="AB3:AB34" si="18">VLOOKUP(AA3,SQUADRE_PER_CODICE,2)</f>
@@ -10486,22 +10526,22 @@
         <v>6.5000006482440007</v>
       </c>
       <c r="AU3" s="105" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AV3" s="106">
         <v>49</v>
       </c>
       <c r="AW3" s="107" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX3" s="108" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AY3" s="107" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AZ3" s="107" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="BA3" s="96" t="str">
         <f t="shared" ref="BA3:BA34" ca="1" si="30">IF(LEFT(AY3,1)="V",VLOOKUP(VALUE(SUBSTITUTE(AY3,"V","")),B_PARTITE_2A_FASE_PER_NUMERO,10,FALSE()),IF(LEFT(AY3,1)="P",VLOOKUP(VALUE(SUBSTITUTE(AY3,"P","")),B_PARTITE_2A_FASE_PER_NUMERO,11,FALSE()),VLOOKUP(AY3,B_CLASSIFICHE_GIRONI,4,FALSE())))</f>
@@ -10587,10 +10627,10 @@
         <v>13</v>
       </c>
       <c r="D4" s="82" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F4" s="109" t="str">
         <f t="shared" si="0"/>
@@ -10672,7 +10712,7 @@
         <v>13</v>
       </c>
       <c r="AA4" s="82" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AB4" s="114" t="str">
         <f t="shared" si="18"/>
@@ -10747,22 +10787,22 @@
         <v>5.5000005761989996</v>
       </c>
       <c r="AU4" s="119" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AV4" s="120">
         <v>50</v>
       </c>
       <c r="AW4" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX4" s="122" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AY4" s="121" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AZ4" s="121" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="BA4" s="109" t="str">
         <f t="shared" ca="1" si="30"/>
@@ -10848,10 +10888,10 @@
         <v>13</v>
       </c>
       <c r="D5" s="82" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E5" s="82" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F5" s="109" t="str">
         <f t="shared" si="0"/>
@@ -10933,7 +10973,7 @@
         <v>13</v>
       </c>
       <c r="AA5" s="82" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AB5" s="114" t="str">
         <f t="shared" si="18"/>
@@ -11008,22 +11048,22 @@
         <v>4.5000003851189998</v>
       </c>
       <c r="AU5" s="119" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="AV5" s="120">
         <v>51</v>
       </c>
       <c r="AW5" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX5" s="122" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AY5" s="121" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AZ5" s="121" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="BA5" s="109" t="str">
         <f t="shared" ca="1" si="30"/>
@@ -11109,10 +11149,10 @@
         <v>13</v>
       </c>
       <c r="D6" s="82" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E6" s="82" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F6" s="109" t="str">
         <f t="shared" si="0"/>
@@ -11194,7 +11234,7 @@
         <v>13</v>
       </c>
       <c r="AA6" s="82" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="AB6" s="114" t="str">
         <f t="shared" si="18"/>
@@ -11269,22 +11309,22 @@
         <v>3.5000003910970001</v>
       </c>
       <c r="AU6" s="119" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AV6" s="120">
         <v>52</v>
       </c>
       <c r="AW6" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX6" s="122" t="s">
+        <v>149</v>
+      </c>
+      <c r="AY6" s="121" t="s">
         <v>153</v>
       </c>
-      <c r="AY6" s="121" t="s">
-        <v>157</v>
-      </c>
       <c r="AZ6" s="121" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="BA6" s="109" t="str">
         <f t="shared" ca="1" si="30"/>
@@ -11370,10 +11410,10 @@
         <v>13</v>
       </c>
       <c r="D7" s="82" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F7" s="109" t="str">
         <f t="shared" si="0"/>
@@ -11452,10 +11492,10 @@
         <v>1B</v>
       </c>
       <c r="Z7" s="124" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AA7" s="124" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AB7" s="125" t="str">
         <f t="shared" si="18"/>
@@ -11530,22 +11570,22 @@
         <v>5.5491005402320006</v>
       </c>
       <c r="AU7" s="119" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AV7" s="120">
         <v>53</v>
       </c>
       <c r="AW7" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX7" s="122" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AY7" s="121" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AZ7" s="121" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="BA7" s="109" t="str">
         <f t="shared" ca="1" si="30"/>
@@ -11631,10 +11671,10 @@
         <v>13</v>
       </c>
       <c r="D8" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="82" t="s">
         <v>147</v>
-      </c>
-      <c r="E8" s="82" t="s">
-        <v>151</v>
       </c>
       <c r="F8" s="109" t="str">
         <f t="shared" si="0"/>
@@ -11713,10 +11753,10 @@
         <v>2B</v>
       </c>
       <c r="Z8" s="33" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AA8" s="82" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AB8" s="114" t="str">
         <f t="shared" si="18"/>
@@ -11791,22 +11831,22 @@
         <v>5.4510514992159997</v>
       </c>
       <c r="AU8" s="119" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AV8" s="120">
         <v>54</v>
       </c>
       <c r="AW8" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX8" s="122" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AY8" s="121" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AZ8" s="121" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="BA8" s="109" t="str">
         <f t="shared" ca="1" si="30"/>
@@ -11889,13 +11929,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D9" s="82" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="82" t="s">
         <v>159</v>
-      </c>
-      <c r="E9" s="82" t="s">
-        <v>163</v>
       </c>
       <c r="F9" s="109" t="str">
         <f t="shared" si="0"/>
@@ -11974,10 +12014,10 @@
         <v>3B</v>
       </c>
       <c r="Z9" s="33" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AA9" s="82" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AB9" s="114" t="str">
         <f t="shared" si="18"/>
@@ -12052,22 +12092,22 @@
         <v>4.5100964762149998</v>
       </c>
       <c r="AU9" s="119" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AV9" s="120">
         <v>55</v>
       </c>
       <c r="AW9" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX9" s="122" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AY9" s="121" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AZ9" s="121" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="BA9" s="109" t="str">
         <f t="shared" ca="1" si="30"/>
@@ -12150,13 +12190,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D10" s="82" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E10" s="82" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F10" s="109" t="str">
         <f t="shared" si="0"/>
@@ -12235,10 +12275,10 @@
         <v>4B</v>
       </c>
       <c r="Z10" s="133" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AA10" s="133" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AB10" s="134" t="str">
         <f t="shared" si="18"/>
@@ -12313,22 +12353,22 @@
         <v>4.4900864852249995</v>
       </c>
       <c r="AU10" s="119" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AV10" s="120">
         <v>56</v>
       </c>
       <c r="AW10" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX10" s="122" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AY10" s="121" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AZ10" s="121" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="BA10" s="109" t="str">
         <f t="shared" ca="1" si="30"/>
@@ -12411,13 +12451,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D11" s="82" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E11" s="82" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F11" s="109" t="str">
         <f t="shared" si="0"/>
@@ -12496,10 +12536,10 @@
         <v>2C</v>
       </c>
       <c r="Z11" s="33" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AA11" s="82" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AB11" s="114" t="str">
         <f t="shared" si="18"/>
@@ -12574,22 +12614,22 @@
         <v>5.502145517202</v>
       </c>
       <c r="AU11" s="119" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AV11" s="120">
         <v>57</v>
       </c>
       <c r="AW11" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX11" s="122" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AY11" s="121" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AZ11" s="140" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="BA11" s="109" t="str">
         <f t="shared" ca="1" si="30"/>
@@ -12672,13 +12712,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D12" s="82" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12" s="82" t="s">
         <v>163</v>
-      </c>
-      <c r="E12" s="82" t="s">
-        <v>167</v>
       </c>
       <c r="F12" s="109" t="str">
         <f t="shared" si="0"/>
@@ -12757,10 +12797,10 @@
         <v>1C</v>
       </c>
       <c r="Z12" s="33" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AA12" s="82" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AB12" s="114" t="str">
         <f t="shared" si="18"/>
@@ -12835,22 +12875,22 @@
         <v>5.5181465442059991</v>
       </c>
       <c r="AU12" s="119" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AV12" s="120">
         <v>58</v>
       </c>
       <c r="AW12" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX12" s="122" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AY12" s="121" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AZ12" s="121" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="BA12" s="109" t="str">
         <f t="shared" ca="1" si="30"/>
@@ -12933,13 +12973,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D13" s="82" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E13" s="82" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F13" s="109" t="str">
         <f t="shared" si="0"/>
@@ -13018,10 +13058,10 @@
         <v>3C</v>
       </c>
       <c r="Z13" s="33" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AA13" s="82" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AB13" s="114" t="str">
         <f t="shared" si="18"/>
@@ -13096,22 +13136,22 @@
         <v>5.4801444982060001</v>
       </c>
       <c r="AU13" s="119" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="AV13" s="120">
         <v>59</v>
       </c>
       <c r="AW13" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX13" s="122" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AY13" s="121" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AZ13" s="121" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="BA13" s="109" t="str">
         <f t="shared" ca="1" si="30"/>
@@ -13194,13 +13234,13 @@
         <v>8</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D14" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" s="82" t="s">
         <v>167</v>
-      </c>
-      <c r="E14" s="82" t="s">
-        <v>171</v>
       </c>
       <c r="F14" s="109" t="str">
         <f t="shared" si="0"/>
@@ -13279,10 +13319,10 @@
         <v>4C</v>
       </c>
       <c r="Z14" s="33" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AA14" s="82" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AB14" s="114" t="str">
         <f t="shared" si="18"/>
@@ -13357,22 +13397,22 @@
         <v>3.5000004411200001</v>
       </c>
       <c r="AU14" s="119" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AV14" s="120">
         <v>60</v>
       </c>
       <c r="AW14" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX14" s="122" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AY14" s="121" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="AZ14" s="121" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="BA14" s="109" t="str">
         <f t="shared" ca="1" si="30"/>
@@ -13455,13 +13495,13 @@
         <v>8</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D15" s="82" t="s">
+        <v>171</v>
+      </c>
+      <c r="E15" s="82" t="s">
         <v>175</v>
-      </c>
-      <c r="E15" s="82" t="s">
-        <v>179</v>
       </c>
       <c r="F15" s="109" t="str">
         <f t="shared" si="0"/>
@@ -13540,10 +13580,10 @@
         <v>1D</v>
       </c>
       <c r="Z15" s="124" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AA15" s="124" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AB15" s="125" t="str">
         <f t="shared" si="18"/>
@@ -13618,22 +13658,22 @@
         <v>5.5611255711789997</v>
       </c>
       <c r="AU15" s="119" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AV15" s="120">
         <v>61</v>
       </c>
       <c r="AW15" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX15" s="122" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AY15" s="121" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AZ15" s="121" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="BA15" s="109" t="str">
         <f t="shared" ca="1" si="30"/>
@@ -13716,13 +13756,13 @@
         <v>8</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D16" s="82" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F16" s="109" t="str">
         <f t="shared" si="0"/>
@@ -13801,10 +13841,10 @@
         <v>3D</v>
       </c>
       <c r="Z16" s="33" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AA16" s="82" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AB16" s="114" t="str">
         <f t="shared" si="18"/>
@@ -13879,22 +13919,22 @@
         <v>5.4390504651330005</v>
       </c>
       <c r="AU16" s="119" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AV16" s="120">
         <v>62</v>
       </c>
       <c r="AW16" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX16" s="122" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AY16" s="121" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AZ16" s="121" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="BA16" s="109" t="str">
         <f t="shared" ca="1" si="30"/>
@@ -13977,13 +14017,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D17" s="82" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E17" s="82" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F17" s="109" t="str">
         <f t="shared" si="0"/>
@@ -14062,10 +14102,10 @@
         <v>2D</v>
       </c>
       <c r="Z17" s="33" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AA17" s="82" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="AB17" s="114" t="str">
         <f t="shared" si="18"/>
@@ -14140,22 +14180,22 @@
         <v>5.5000545201260005</v>
       </c>
       <c r="AU17" s="119" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="AV17" s="120">
         <v>63</v>
       </c>
       <c r="AW17" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX17" s="122" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AY17" s="121" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AZ17" s="121" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="BA17" s="109" t="str">
         <f t="shared" ca="1" si="30"/>
@@ -14238,13 +14278,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D18" s="82" t="s">
+        <v>175</v>
+      </c>
+      <c r="E18" s="82" t="s">
         <v>179</v>
-      </c>
-      <c r="E18" s="82" t="s">
-        <v>183</v>
       </c>
       <c r="F18" s="109" t="str">
         <f t="shared" si="0"/>
@@ -14323,10 +14363,10 @@
         <v>4D</v>
       </c>
       <c r="Z18" s="133" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AA18" s="133" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AB18" s="134" t="str">
         <f t="shared" si="18"/>
@@ -14401,22 +14441,22 @@
         <v>3.5000004441529997</v>
       </c>
       <c r="AU18" s="119" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AV18" s="120">
         <v>64</v>
       </c>
       <c r="AW18" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX18" s="122" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AY18" s="121" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AZ18" s="121" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="BA18" s="109" t="str">
         <f t="shared" ca="1" si="30"/>
@@ -14499,13 +14539,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D19" s="82" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E19" s="82" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F19" s="109" t="str">
         <f t="shared" si="0"/>
@@ -14584,10 +14624,10 @@
         <v>1E</v>
       </c>
       <c r="Z19" s="33" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AA19" s="82" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="AB19" s="114" t="str">
         <f t="shared" si="18"/>
@@ -14662,22 +14702,22 @@
         <v>5.5000675031029997</v>
       </c>
       <c r="AU19" s="119" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="AV19" s="120">
         <v>65</v>
       </c>
       <c r="AW19" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX19" s="122" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AY19" s="121" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AZ19" s="121" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="BA19" s="141" t="str">
         <f t="shared" ca="1" si="30"/>
@@ -14760,13 +14800,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D20" s="82" t="s">
+        <v>179</v>
+      </c>
+      <c r="E20" s="82" t="s">
         <v>183</v>
-      </c>
-      <c r="E20" s="82" t="s">
-        <v>187</v>
       </c>
       <c r="F20" s="109" t="str">
         <f t="shared" si="0"/>
@@ -14845,10 +14885,10 @@
         <v>2E</v>
       </c>
       <c r="Z20" s="33" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AA20" s="82" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AB20" s="114" t="str">
         <f t="shared" si="18"/>
@@ -14923,22 +14963,22 @@
         <v>5.5000675021019996</v>
       </c>
       <c r="AU20" s="119" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AV20" s="120">
         <v>66</v>
       </c>
       <c r="AW20" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX20" s="122" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AY20" s="121" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="AZ20" s="121" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="BA20" s="109" t="str">
         <f t="shared" ca="1" si="30"/>
@@ -15021,13 +15061,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D21" s="82" t="s">
+        <v>187</v>
+      </c>
+      <c r="E21" s="82" t="s">
         <v>191</v>
-      </c>
-      <c r="E21" s="82" t="s">
-        <v>195</v>
       </c>
       <c r="F21" s="109" t="str">
         <f t="shared" si="0"/>
@@ -15106,10 +15146,10 @@
         <v>3E</v>
       </c>
       <c r="Z21" s="33" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AA21" s="82" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="AB21" s="114" t="str">
         <f t="shared" si="18"/>
@@ -15184,22 +15224,22 @@
         <v>5.5000675011009994</v>
       </c>
       <c r="AU21" s="119" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="AV21" s="120">
         <v>67</v>
       </c>
       <c r="AW21" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX21" s="122" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AY21" s="121" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="AZ21" s="121" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="BA21" s="109" t="str">
         <f t="shared" ca="1" si="30"/>
@@ -15282,13 +15322,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D22" s="82" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E22" s="82" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F22" s="109" t="str">
         <f t="shared" si="0"/>
@@ -15367,10 +15407,10 @@
         <v>4E</v>
       </c>
       <c r="Z22" s="33" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AA22" s="82" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AB22" s="114" t="str">
         <f t="shared" si="18"/>
@@ -15445,22 +15485,22 @@
         <v>3.5000004940989999</v>
       </c>
       <c r="AU22" s="119" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AV22" s="120">
         <v>68</v>
       </c>
       <c r="AW22" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX22" s="122" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AY22" s="121" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AZ22" s="121" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="BA22" s="109" t="str">
         <f t="shared" ca="1" si="30"/>
@@ -15543,13 +15583,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D23" s="82" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E23" s="82" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F23" s="109" t="str">
         <f t="shared" si="0"/>
@@ -15628,10 +15668,10 @@
         <v>1F</v>
       </c>
       <c r="Z23" s="124" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AA23" s="124" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AB23" s="125" t="str">
         <f t="shared" si="18"/>
@@ -15706,22 +15746,22 @@
         <v>5.5000675011029996</v>
       </c>
       <c r="AU23" s="119" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AV23" s="120">
         <v>69</v>
       </c>
       <c r="AW23" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX23" s="122" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AY23" s="121" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AZ23" s="121" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="BA23" s="109" t="str">
         <f t="shared" ca="1" si="30"/>
@@ -15804,13 +15844,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D24" s="82" t="s">
+        <v>191</v>
+      </c>
+      <c r="E24" s="82" t="s">
         <v>195</v>
-      </c>
-      <c r="E24" s="82" t="s">
-        <v>199</v>
       </c>
       <c r="F24" s="109" t="str">
         <f t="shared" si="0"/>
@@ -15889,10 +15929,10 @@
         <v>2F</v>
       </c>
       <c r="Z24" s="33" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AA24" s="82" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AB24" s="114" t="str">
         <f t="shared" si="18"/>
@@ -15967,22 +16007,22 @@
         <v>5.5000675011019995</v>
       </c>
       <c r="AU24" s="119" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AV24" s="120">
         <v>70</v>
       </c>
       <c r="AW24" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX24" s="122" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AY24" s="121" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="AZ24" s="121" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="BA24" s="109" t="str">
         <f t="shared" ca="1" si="30"/>
@@ -16065,13 +16105,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D25" s="82" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E25" s="82" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F25" s="109" t="str">
         <f t="shared" si="0"/>
@@ -16150,10 +16190,10 @@
         <v>3F</v>
       </c>
       <c r="Z25" s="33" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AA25" s="82" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="AB25" s="114" t="str">
         <f t="shared" si="18"/>
@@ -16228,22 +16268,22 @@
         <v>5.5000675011009994</v>
       </c>
       <c r="AU25" s="119" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AV25" s="120">
         <v>71</v>
       </c>
       <c r="AW25" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX25" s="122" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AY25" s="121" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AZ25" s="121" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="BA25" s="109" t="str">
         <f t="shared" ca="1" si="30"/>
@@ -16326,13 +16366,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D26" s="82" t="s">
+        <v>195</v>
+      </c>
+      <c r="E26" s="82" t="s">
         <v>199</v>
-      </c>
-      <c r="E26" s="82" t="s">
-        <v>203</v>
       </c>
       <c r="F26" s="109" t="str">
         <f t="shared" si="0"/>
@@ -16411,10 +16451,10 @@
         <v>4F</v>
       </c>
       <c r="Z26" s="133" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AA26" s="133" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AB26" s="134" t="str">
         <f t="shared" si="18"/>
@@ -16489,22 +16529,22 @@
         <v>3.500000497102</v>
       </c>
       <c r="AU26" s="119" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="AV26" s="120">
         <v>72</v>
       </c>
       <c r="AW26" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX26" s="122" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AY26" s="121" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AZ26" s="121" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="BA26" s="109" t="str">
         <f t="shared" ca="1" si="30"/>
@@ -16587,13 +16627,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D27" s="82" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E27" s="82" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F27" s="109" t="str">
         <f t="shared" si="0"/>
@@ -16672,10 +16712,10 @@
         <v>1G</v>
       </c>
       <c r="Z27" s="33" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AA27" s="82" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AB27" s="114" t="str">
         <f t="shared" si="18"/>
@@ -16750,22 +16790,22 @@
         <v>6.5000005600600002</v>
       </c>
       <c r="AU27" s="119" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AV27" s="120">
         <v>73</v>
       </c>
       <c r="AW27" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX27" s="122" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AY27" s="121" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AZ27" s="121" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="BA27" s="109" t="str">
         <f t="shared" ca="1" si="30"/>
@@ -16848,13 +16888,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D28" s="82" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E28" s="82" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F28" s="109" t="str">
         <f t="shared" si="0"/>
@@ -16933,10 +16973,10 @@
         <v>2G</v>
       </c>
       <c r="Z28" s="33" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AA28" s="82" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AB28" s="114" t="str">
         <f t="shared" si="18"/>
@@ -17011,22 +17051,22 @@
         <v>4.5000005200400004</v>
       </c>
       <c r="AU28" s="119" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AV28" s="120">
         <v>74</v>
       </c>
       <c r="AW28" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX28" s="122" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AY28" s="121" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AZ28" s="121" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="BA28" s="109" t="str">
         <f t="shared" ca="1" si="30"/>
@@ -17109,13 +17149,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D29" s="82" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E29" s="82" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F29" s="109" t="str">
         <f t="shared" si="0"/>
@@ -17194,10 +17234,10 @@
         <v>4G</v>
       </c>
       <c r="Z29" s="33" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AA29" s="82" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AB29" s="114" t="str">
         <f t="shared" si="18"/>
@@ -17272,22 +17312,22 @@
         <v>0.50000043999999999</v>
       </c>
       <c r="AU29" s="119" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="AV29" s="120">
         <v>75</v>
       </c>
       <c r="AW29" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX29" s="122" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AY29" s="121" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AZ29" s="121" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="BA29" s="109" t="str">
         <f t="shared" ca="1" si="30"/>
@@ -17370,13 +17410,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D30" s="82" t="s">
+        <v>208</v>
+      </c>
+      <c r="E30" s="82" t="s">
         <v>212</v>
-      </c>
-      <c r="E30" s="82" t="s">
-        <v>216</v>
       </c>
       <c r="F30" s="109" t="str">
         <f t="shared" si="0"/>
@@ -17455,10 +17495,10 @@
         <v>3G</v>
       </c>
       <c r="Z30" s="33" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AA30" s="82" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AB30" s="114" t="str">
         <f t="shared" si="18"/>
@@ -17533,22 +17573,22 @@
         <v>2.5000004800200002</v>
       </c>
       <c r="AU30" s="119" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AV30" s="120">
         <v>76</v>
       </c>
       <c r="AW30" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX30" s="122" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AY30" s="121" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AZ30" s="121" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="BA30" s="109" t="str">
         <f t="shared" ca="1" si="30"/>
@@ -17631,13 +17671,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D31" s="82" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E31" s="82" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F31" s="109" t="str">
         <f t="shared" si="0"/>
@@ -17716,10 +17756,10 @@
         <v>1H</v>
       </c>
       <c r="Z31" s="124" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AA31" s="124" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AB31" s="125" t="str">
         <f t="shared" si="18"/>
@@ -17794,22 +17834,22 @@
         <v>5.5190975302450003</v>
       </c>
       <c r="AU31" s="119" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AV31" s="120">
         <v>77</v>
       </c>
       <c r="AW31" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX31" s="122" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AY31" s="121" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AZ31" s="121" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="BA31" s="109" t="str">
         <f t="shared" ca="1" si="30"/>
@@ -17892,13 +17932,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D32" s="82" t="s">
+        <v>212</v>
+      </c>
+      <c r="E32" s="82" t="s">
         <v>216</v>
-      </c>
-      <c r="E32" s="82" t="s">
-        <v>220</v>
       </c>
       <c r="F32" s="109" t="str">
         <f t="shared" si="0"/>
@@ -17977,10 +18017,10 @@
         <v>4H</v>
       </c>
       <c r="Z32" s="33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AA32" s="82" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AB32" s="114" t="str">
         <f t="shared" si="18"/>
@@ -18055,22 +18095,22 @@
         <v>3.5000004261700002</v>
       </c>
       <c r="AU32" s="119" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AV32" s="120">
         <v>78</v>
       </c>
       <c r="AW32" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX32" s="122" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AY32" s="121" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AZ32" s="121" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="BA32" s="109" t="str">
         <f t="shared" ca="1" si="30"/>
@@ -18153,13 +18193,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D33" s="82" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E33" s="82" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F33" s="109" t="str">
         <f t="shared" si="0"/>
@@ -18238,10 +18278,10 @@
         <v>2H</v>
       </c>
       <c r="Z33" s="33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AA33" s="82" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AB33" s="114" t="str">
         <f t="shared" si="18"/>
@@ -18316,22 +18356,22 @@
         <v>5.481078553163</v>
       </c>
       <c r="AU33" s="119" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AV33" s="120">
         <v>79</v>
       </c>
       <c r="AW33" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX33" s="122" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AY33" s="121" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AZ33" s="121" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="BA33" s="109" t="str">
         <f t="shared" ca="1" si="30"/>
@@ -18414,13 +18454,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D34" s="82" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E34" s="82" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F34" s="109" t="str">
         <f t="shared" si="0"/>
@@ -18499,10 +18539,10 @@
         <v>3H</v>
       </c>
       <c r="Z34" s="38" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AA34" s="83" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AB34" s="143" t="str">
         <f t="shared" si="18"/>
@@ -18577,22 +18617,22 @@
         <v>4.500000491133</v>
       </c>
       <c r="AU34" s="119" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AV34" s="120">
         <v>80</v>
       </c>
       <c r="AW34" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX34" s="122" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AY34" s="121" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AZ34" s="121" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="BA34" s="109" t="str">
         <f t="shared" ca="1" si="30"/>
@@ -18675,13 +18715,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D35" s="82" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E35" s="82" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F35" s="109" t="str">
         <f t="shared" si="0"/>
@@ -18756,22 +18796,22 @@
         <v>-1</v>
       </c>
       <c r="AU35" s="119" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AV35" s="120">
         <v>81</v>
       </c>
       <c r="AW35" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX35" s="122" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="AY35" s="121" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AZ35" s="121" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="BA35" s="109" t="str">
         <f t="shared" ref="BA35:BA66" ca="1" si="48">IF(LEFT(AY35,1)="V",VLOOKUP(VALUE(SUBSTITUTE(AY35,"V","")),B_PARTITE_2A_FASE_PER_NUMERO,10,FALSE()),IF(LEFT(AY35,1)="P",VLOOKUP(VALUE(SUBSTITUTE(AY35,"P","")),B_PARTITE_2A_FASE_PER_NUMERO,11,FALSE()),VLOOKUP(AY35,B_CLASSIFICHE_GIRONI,4,FALSE())))</f>
@@ -18854,13 +18894,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D36" s="82" t="s">
+        <v>225</v>
+      </c>
+      <c r="E36" s="82" t="s">
         <v>229</v>
-      </c>
-      <c r="E36" s="82" t="s">
-        <v>233</v>
       </c>
       <c r="F36" s="109" t="str">
         <f t="shared" si="0"/>
@@ -18935,22 +18975,22 @@
         <v>-1</v>
       </c>
       <c r="AU36" s="119" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="AV36" s="120">
         <v>82</v>
       </c>
       <c r="AW36" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX36" s="122" t="s">
+        <v>272</v>
+      </c>
+      <c r="AY36" s="121" t="s">
+        <v>237</v>
+      </c>
+      <c r="AZ36" s="121" t="s">
         <v>276</v>
-      </c>
-      <c r="AY36" s="121" t="s">
-        <v>241</v>
-      </c>
-      <c r="AZ36" s="121" t="s">
-        <v>280</v>
       </c>
       <c r="BA36" s="109" t="str">
         <f t="shared" ca="1" si="48"/>
@@ -19033,13 +19073,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D37" s="82" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E37" s="82" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F37" s="109" t="str">
         <f t="shared" si="0"/>
@@ -19114,22 +19154,22 @@
         <v>-1</v>
       </c>
       <c r="AU37" s="119" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AV37" s="120">
         <v>83</v>
       </c>
       <c r="AW37" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX37" s="122" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="AY37" s="121" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="AZ37" s="121" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="BA37" s="109" t="str">
         <f t="shared" ca="1" si="48"/>
@@ -19212,13 +19252,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D38" s="82" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E38" s="82" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F38" s="109" t="str">
         <f t="shared" si="0"/>
@@ -19293,22 +19333,22 @@
         <v>-1</v>
       </c>
       <c r="AU38" s="119" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="AV38" s="120">
         <v>84</v>
       </c>
       <c r="AW38" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX38" s="122" t="s">
+        <v>278</v>
+      </c>
+      <c r="AY38" s="121" t="s">
+        <v>215</v>
+      </c>
+      <c r="AZ38" s="121" t="s">
         <v>282</v>
-      </c>
-      <c r="AY38" s="121" t="s">
-        <v>219</v>
-      </c>
-      <c r="AZ38" s="121" t="s">
-        <v>286</v>
       </c>
       <c r="BA38" s="109" t="str">
         <f t="shared" ca="1" si="48"/>
@@ -19391,13 +19431,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D39" s="82" t="s">
+        <v>238</v>
+      </c>
+      <c r="E39" s="82" t="s">
         <v>242</v>
-      </c>
-      <c r="E39" s="82" t="s">
-        <v>246</v>
       </c>
       <c r="F39" s="109" t="str">
         <f t="shared" si="0"/>
@@ -19472,22 +19512,22 @@
         <v>-20</v>
       </c>
       <c r="AU39" s="119" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="AV39" s="120">
         <v>85</v>
       </c>
       <c r="AW39" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX39" s="122" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="AY39" s="121" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="AZ39" s="121" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="BA39" s="109" t="str">
         <f t="shared" ca="1" si="48"/>
@@ -19570,13 +19610,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D40" s="82" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E40" s="82" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F40" s="109" t="str">
         <f t="shared" si="0"/>
@@ -19651,22 +19691,22 @@
         <v>-20</v>
       </c>
       <c r="AU40" s="119" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="AV40" s="120">
         <v>86</v>
       </c>
       <c r="AW40" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX40" s="122" t="s">
+        <v>284</v>
+      </c>
+      <c r="AY40" s="121" t="s">
         <v>288</v>
       </c>
-      <c r="AY40" s="121" t="s">
-        <v>292</v>
-      </c>
       <c r="AZ40" s="121" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="BA40" s="109" t="str">
         <f t="shared" ca="1" si="48"/>
@@ -19749,13 +19789,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D41" s="82" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E41" s="82" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F41" s="109" t="str">
         <f t="shared" si="0"/>
@@ -19830,22 +19870,22 @@
         <v>-20</v>
       </c>
       <c r="AU41" s="119" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AV41" s="120">
         <v>87</v>
       </c>
       <c r="AW41" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX41" s="122" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AY41" s="121" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AZ41" s="121" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="BA41" s="109" t="str">
         <f t="shared" ca="1" si="48"/>
@@ -19928,13 +19968,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D42" s="82" t="s">
+        <v>242</v>
+      </c>
+      <c r="E42" s="82" t="s">
         <v>246</v>
-      </c>
-      <c r="E42" s="82" t="s">
-        <v>250</v>
       </c>
       <c r="F42" s="109" t="str">
         <f t="shared" si="0"/>
@@ -20009,22 +20049,22 @@
         <v>-20</v>
       </c>
       <c r="AU42" s="119" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AV42" s="120">
         <v>88</v>
       </c>
       <c r="AW42" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX42" s="122" t="s">
+        <v>291</v>
+      </c>
+      <c r="AY42" s="121" t="s">
         <v>295</v>
       </c>
-      <c r="AY42" s="121" t="s">
-        <v>299</v>
-      </c>
       <c r="AZ42" s="121" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="BA42" s="109" t="str">
         <f t="shared" ca="1" si="48"/>
@@ -20107,13 +20147,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D43" s="82" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E43" s="82" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F43" s="109" t="str">
         <f t="shared" si="0"/>
@@ -20188,22 +20228,22 @@
         <v>-20</v>
       </c>
       <c r="AU43" s="119" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="AV43" s="120">
         <v>89</v>
       </c>
       <c r="AW43" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX43" s="122" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AY43" s="121" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="AZ43" s="121" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="BA43" s="109" t="str">
         <f t="shared" ca="1" si="48"/>
@@ -20286,13 +20326,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D44" s="82" t="s">
+        <v>246</v>
+      </c>
+      <c r="E44" s="82" t="s">
         <v>250</v>
-      </c>
-      <c r="E44" s="82" t="s">
-        <v>254</v>
       </c>
       <c r="F44" s="109" t="str">
         <f t="shared" si="0"/>
@@ -20367,22 +20407,22 @@
         <v>20</v>
       </c>
       <c r="AU44" s="119" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AV44" s="120">
         <v>90</v>
       </c>
       <c r="AW44" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX44" s="122" t="s">
+        <v>298</v>
+      </c>
+      <c r="AY44" s="121" t="s">
         <v>302</v>
       </c>
-      <c r="AY44" s="121" t="s">
-        <v>306</v>
-      </c>
       <c r="AZ44" s="121" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="BA44" s="109" t="str">
         <f t="shared" ca="1" si="48"/>
@@ -20465,13 +20505,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D45" s="82" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E45" s="82" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F45" s="109" t="str">
         <f t="shared" si="0"/>
@@ -20546,22 +20586,22 @@
         <v>-17</v>
       </c>
       <c r="AU45" s="119" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AV45" s="120">
         <v>91</v>
       </c>
       <c r="AW45" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX45" s="122" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="AY45" s="121" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="AZ45" s="121" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="BA45" s="109" t="str">
         <f t="shared" ca="1" si="48"/>
@@ -20644,13 +20684,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D46" s="82" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E46" s="82" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F46" s="109" t="str">
         <f t="shared" si="0"/>
@@ -20725,22 +20765,22 @@
         <v>-19</v>
       </c>
       <c r="AU46" s="119" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AV46" s="120">
         <v>92</v>
       </c>
       <c r="AW46" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX46" s="122" t="s">
+        <v>305</v>
+      </c>
+      <c r="AY46" s="121" t="s">
         <v>309</v>
       </c>
-      <c r="AY46" s="121" t="s">
-        <v>313</v>
-      </c>
       <c r="AZ46" s="121" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="BA46" s="109" t="str">
         <f t="shared" ca="1" si="48"/>
@@ -20823,13 +20863,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D47" s="82" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E47" s="82" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F47" s="109" t="str">
         <f t="shared" si="0"/>
@@ -20904,22 +20944,22 @@
         <v>5</v>
       </c>
       <c r="AU47" s="119" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AV47" s="120">
         <v>93</v>
       </c>
       <c r="AW47" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX47" s="122" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="AY47" s="121" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="AZ47" s="121" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="BA47" s="109" t="str">
         <f t="shared" ca="1" si="48"/>
@@ -21002,13 +21042,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D48" s="82" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E48" s="82" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F48" s="109" t="str">
         <f t="shared" si="0"/>
@@ -21083,22 +21123,22 @@
         <v>-52</v>
       </c>
       <c r="AU48" s="119" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AV48" s="120">
         <v>94</v>
       </c>
       <c r="AW48" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX48" s="122" t="s">
+        <v>312</v>
+      </c>
+      <c r="AY48" s="121" t="s">
         <v>316</v>
       </c>
-      <c r="AY48" s="121" t="s">
-        <v>320</v>
-      </c>
       <c r="AZ48" s="121" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="BA48" s="109" t="str">
         <f t="shared" ca="1" si="48"/>
@@ -21181,13 +21221,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D49" s="82" t="s">
+        <v>263</v>
+      </c>
+      <c r="E49" s="82" t="s">
         <v>267</v>
-      </c>
-      <c r="E49" s="82" t="s">
-        <v>271</v>
       </c>
       <c r="F49" s="109" t="str">
         <f t="shared" si="0"/>
@@ -21262,22 +21302,22 @@
         <v>-20</v>
       </c>
       <c r="AU49" s="119" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AV49" s="120">
         <v>95</v>
       </c>
       <c r="AW49" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX49" s="122" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AY49" s="121" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AZ49" s="121" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="BA49" s="109" t="str">
         <f t="shared" ca="1" si="48"/>
@@ -21360,13 +21400,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D50" s="83" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E50" s="83" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F50" s="149" t="str">
         <f t="shared" si="0"/>
@@ -21441,22 +21481,22 @@
         <v>-6</v>
       </c>
       <c r="AU50" s="119" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="AV50" s="120">
         <v>96</v>
       </c>
       <c r="AW50" s="152" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX50" s="153" t="s">
+        <v>319</v>
+      </c>
+      <c r="AY50" s="152" t="s">
         <v>323</v>
       </c>
-      <c r="AY50" s="152" t="s">
-        <v>327</v>
-      </c>
       <c r="AZ50" s="152" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="BA50" s="149" t="str">
         <f t="shared" ca="1" si="48"/>
@@ -21533,22 +21573,22 @@
     </row>
     <row r="51" spans="1:70">
       <c r="AU51" s="119" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AV51" s="120">
         <v>97</v>
       </c>
       <c r="AW51" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX51" s="122" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="AY51" s="121" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="AZ51" s="121" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="BA51" s="109" t="str">
         <f t="shared" ca="1" si="48"/>
@@ -21625,22 +21665,22 @@
     </row>
     <row r="52" spans="1:70">
       <c r="AU52" s="119" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AV52" s="120">
         <v>98</v>
       </c>
       <c r="AW52" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX52" s="122" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AY52" s="121" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AZ52" s="121" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="BA52" s="109" t="str">
         <f t="shared" ca="1" si="48"/>
@@ -21717,22 +21757,22 @@
     </row>
     <row r="53" spans="1:70">
       <c r="AU53" s="119" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AV53" s="120">
         <v>99</v>
       </c>
       <c r="AW53" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX53" s="122" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AY53" s="121" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AZ53" s="121" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="BA53" s="109" t="str">
         <f t="shared" ca="1" si="48"/>
@@ -21809,22 +21849,22 @@
     </row>
     <row r="54" spans="1:70">
       <c r="AU54" s="119" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AV54" s="120">
         <v>100</v>
       </c>
       <c r="AW54" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX54" s="122" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AY54" s="121" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="AZ54" s="121" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="BA54" s="109" t="str">
         <f t="shared" ca="1" si="48"/>
@@ -21901,22 +21941,22 @@
     </row>
     <row r="55" spans="1:70">
       <c r="AU55" s="119" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AV55" s="120">
         <v>101</v>
       </c>
       <c r="AW55" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX55" s="122" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AY55" s="121" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AZ55" s="121" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="BA55" s="109" t="str">
         <f t="shared" ca="1" si="48"/>
@@ -21993,22 +22033,22 @@
     </row>
     <row r="56" spans="1:70">
       <c r="AU56" s="119" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AV56" s="120">
         <v>102</v>
       </c>
       <c r="AW56" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX56" s="122" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AY56" s="121" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="AZ56" s="121" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="BA56" s="109" t="str">
         <f t="shared" ca="1" si="48"/>
@@ -22085,22 +22125,22 @@
     </row>
     <row r="57" spans="1:70">
       <c r="AU57" s="119" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="AV57" s="120">
         <v>103</v>
       </c>
       <c r="AW57" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX57" s="122" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AY57" s="121" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AZ57" s="121" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="BA57" s="109" t="str">
         <f t="shared" ca="1" si="48"/>
@@ -22177,22 +22217,22 @@
     </row>
     <row r="58" spans="1:70">
       <c r="AU58" s="119" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AV58" s="120">
         <v>104</v>
       </c>
       <c r="AW58" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX58" s="122" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AY58" s="121" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="AZ58" s="121" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="BA58" s="109" t="str">
         <f t="shared" ca="1" si="48"/>
@@ -22269,22 +22309,22 @@
     </row>
     <row r="59" spans="1:70">
       <c r="AU59" s="119" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="AV59" s="120">
         <v>105</v>
       </c>
       <c r="AW59" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX59" s="122" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AY59" s="121" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="AZ59" s="121" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="BA59" s="109" t="str">
         <f t="shared" ca="1" si="48"/>
@@ -22361,22 +22401,22 @@
     </row>
     <row r="60" spans="1:70">
       <c r="AU60" s="119" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="AV60" s="120">
         <v>106</v>
       </c>
       <c r="AW60" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX60" s="122" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="AY60" s="121" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AZ60" s="121" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="BA60" s="109" t="str">
         <f t="shared" ca="1" si="48"/>
@@ -22453,22 +22493,22 @@
     </row>
     <row r="61" spans="1:70">
       <c r="AU61" s="119" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AV61" s="120">
         <v>107</v>
       </c>
       <c r="AW61" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX61" s="122" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="AY61" s="121" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AZ61" s="121" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="BA61" s="109" t="str">
         <f t="shared" ca="1" si="48"/>
@@ -22545,22 +22585,22 @@
     </row>
     <row r="62" spans="1:70">
       <c r="AU62" s="119" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AV62" s="120">
         <v>108</v>
       </c>
       <c r="AW62" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX62" s="122" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AY62" s="121" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AZ62" s="121" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="BA62" s="109" t="str">
         <f t="shared" ca="1" si="48"/>
@@ -22637,22 +22677,22 @@
     </row>
     <row r="63" spans="1:70">
       <c r="AU63" s="119" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AV63" s="120">
         <v>109</v>
       </c>
       <c r="AW63" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX63" s="122" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AY63" s="121" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AZ63" s="121" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="BA63" s="109" t="str">
         <f t="shared" ca="1" si="48"/>
@@ -22729,22 +22769,22 @@
     </row>
     <row r="64" spans="1:70">
       <c r="AU64" s="119" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="AV64" s="120">
         <v>110</v>
       </c>
       <c r="AW64" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX64" s="122" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AY64" s="121" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AZ64" s="121" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="BA64" s="109" t="str">
         <f t="shared" ca="1" si="48"/>
@@ -22821,22 +22861,22 @@
     </row>
     <row r="65" spans="47:70">
       <c r="AU65" s="119" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="AV65" s="120">
         <v>111</v>
       </c>
       <c r="AW65" s="121" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX65" s="122" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AY65" s="121" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="AZ65" s="121" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="BA65" s="109" t="str">
         <f t="shared" ca="1" si="48"/>
@@ -22913,22 +22953,22 @@
     </row>
     <row r="66" spans="47:70">
       <c r="AU66" s="154" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="AV66" s="155">
         <v>112</v>
       </c>
       <c r="AW66" s="152" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AX66" s="153" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AY66" s="152" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="AZ66" s="152" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="BA66" s="149" t="str">
         <f t="shared" ca="1" si="48"/>
@@ -23079,8 +23119,8 @@
     <row r="1" spans="1:9" ht="20.25">
       <c r="A1" s="156"/>
       <c r="B1" s="8" t="str">
-        <f>VLOOKUP("NOME_TORNEO",INPUT_DATI_TORNEO,2,0)</f>
-        <v>Torneo dell’Estate</v>
+        <f>VLOOKUP("NOME_TORNEO",INPUT_DATI_TORNEO,2,0)&amp;" "&amp;VLOOKUP("STAGIONE",INPUT_DATI_TORNEO,2,0)</f>
+        <v>Torneo dell’Estate 2021</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -23093,7 +23133,7 @@
     <row r="2" spans="1:9">
       <c r="A2" s="156"/>
       <c r="B2" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -23106,26 +23146,26 @@
     <row r="3" spans="1:9">
       <c r="A3" s="156"/>
       <c r="B3" s="157" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C3" s="157" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D3" s="157" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="157" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H3" s="157" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I3" s="157" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -23162,7 +23202,7 @@
       </c>
       <c r="I4" s="165" t="str">
         <f t="shared" ref="I4:I11" si="7">VLOOKUP(A4,INPUT_DATE_E_RISULTATI_GIRONI,11,0)</f>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -23199,7 +23239,7 @@
       </c>
       <c r="I5" s="165" t="str">
         <f t="shared" si="7"/>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -23236,7 +23276,7 @@
       </c>
       <c r="I6" s="165" t="str">
         <f t="shared" si="7"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -23273,7 +23313,7 @@
       </c>
       <c r="I7" s="165" t="str">
         <f t="shared" si="7"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -23310,7 +23350,7 @@
       </c>
       <c r="I8" s="165" t="str">
         <f t="shared" si="7"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -23347,7 +23387,7 @@
       </c>
       <c r="I9" s="165" t="str">
         <f t="shared" si="7"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -23384,7 +23424,7 @@
       </c>
       <c r="I10" s="165" t="str">
         <f t="shared" si="7"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -23421,7 +23461,7 @@
       </c>
       <c r="I11" s="165" t="str">
         <f t="shared" si="7"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -23469,7 +23509,7 @@
       </c>
       <c r="I13" s="165" t="str">
         <f t="shared" ref="I13:I52" si="15">VLOOKUP(A13,INPUT_DATE_E_RISULTATI_GIRONI,11,0)</f>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -23506,7 +23546,7 @@
       </c>
       <c r="I14" s="165" t="str">
         <f t="shared" si="15"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -23543,7 +23583,7 @@
       </c>
       <c r="I15" s="165" t="str">
         <f t="shared" si="15"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -23580,7 +23620,7 @@
       </c>
       <c r="I16" s="165" t="str">
         <f t="shared" si="15"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -23617,7 +23657,7 @@
       </c>
       <c r="I17" s="165" t="str">
         <f t="shared" si="15"/>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -23654,7 +23694,7 @@
       </c>
       <c r="I18" s="165" t="str">
         <f t="shared" si="15"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -23691,7 +23731,7 @@
       </c>
       <c r="I19" s="165" t="str">
         <f t="shared" si="15"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -23728,7 +23768,7 @@
       </c>
       <c r="I20" s="165" t="str">
         <f t="shared" si="15"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -23765,7 +23805,7 @@
       </c>
       <c r="I21" s="165" t="str">
         <f t="shared" si="15"/>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -23802,7 +23842,7 @@
       </c>
       <c r="I22" s="165" t="str">
         <f t="shared" si="15"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -23839,7 +23879,7 @@
       </c>
       <c r="I23" s="165" t="str">
         <f t="shared" si="15"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -23876,7 +23916,7 @@
       </c>
       <c r="I24" s="165" t="str">
         <f t="shared" si="15"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -23913,7 +23953,7 @@
       </c>
       <c r="I25" s="165" t="str">
         <f t="shared" si="15"/>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -23950,7 +23990,7 @@
       </c>
       <c r="I26" s="165" t="str">
         <f t="shared" si="15"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -23987,7 +24027,7 @@
       </c>
       <c r="I27" s="165" t="str">
         <f t="shared" si="15"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -24024,7 +24064,7 @@
       </c>
       <c r="I28" s="165" t="str">
         <f t="shared" si="15"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -24061,7 +24101,7 @@
       </c>
       <c r="I29" s="165" t="str">
         <f t="shared" si="15"/>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -24098,7 +24138,7 @@
       </c>
       <c r="I30" s="165" t="str">
         <f t="shared" si="15"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -24135,7 +24175,7 @@
       </c>
       <c r="I31" s="165" t="str">
         <f t="shared" si="15"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -24172,7 +24212,7 @@
       </c>
       <c r="I32" s="165" t="str">
         <f t="shared" si="15"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -24209,7 +24249,7 @@
       </c>
       <c r="I33" s="165" t="str">
         <f t="shared" si="15"/>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -24246,7 +24286,7 @@
       </c>
       <c r="I34" s="165" t="str">
         <f t="shared" si="15"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -24283,7 +24323,7 @@
       </c>
       <c r="I35" s="165" t="str">
         <f t="shared" si="15"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -24320,7 +24360,7 @@
       </c>
       <c r="I36" s="165" t="str">
         <f t="shared" si="15"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -24357,7 +24397,7 @@
       </c>
       <c r="I37" s="165" t="str">
         <f t="shared" si="15"/>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -24394,7 +24434,7 @@
       </c>
       <c r="I38" s="165" t="str">
         <f t="shared" si="15"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -24431,7 +24471,7 @@
       </c>
       <c r="I39" s="165" t="str">
         <f t="shared" si="15"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -24468,7 +24508,7 @@
       </c>
       <c r="I40" s="165" t="str">
         <f t="shared" si="15"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -24505,7 +24545,7 @@
       </c>
       <c r="I41" s="165" t="str">
         <f t="shared" si="15"/>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -24542,7 +24582,7 @@
       </c>
       <c r="I42" s="165" t="str">
         <f t="shared" si="15"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -24579,7 +24619,7 @@
       </c>
       <c r="I43" s="165" t="str">
         <f t="shared" si="15"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -24616,7 +24656,7 @@
       </c>
       <c r="I44" s="165" t="str">
         <f t="shared" si="15"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -24653,7 +24693,7 @@
       </c>
       <c r="I45" s="165" t="str">
         <f t="shared" si="15"/>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -24690,7 +24730,7 @@
       </c>
       <c r="I46" s="165" t="str">
         <f t="shared" si="15"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -24727,7 +24767,7 @@
       </c>
       <c r="I47" s="165" t="str">
         <f t="shared" si="15"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -24764,7 +24804,7 @@
       </c>
       <c r="I48" s="165" t="str">
         <f t="shared" si="15"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -24801,7 +24841,7 @@
       </c>
       <c r="I49" s="165" t="str">
         <f t="shared" si="15"/>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -24838,7 +24878,7 @@
       </c>
       <c r="I50" s="165" t="str">
         <f t="shared" si="15"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -24875,7 +24915,7 @@
       </c>
       <c r="I51" s="165" t="str">
         <f t="shared" si="15"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -24912,11 +24952,10 @@
       </c>
       <c r="I52" s="165" t="str">
         <f t="shared" si="15"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="3">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:I2"/>
@@ -24968,8 +25007,8 @@
   <sheetData>
     <row r="1" spans="1:17" ht="20.25">
       <c r="A1" s="8" t="str">
-        <f>VLOOKUP("NOME_TORNEO",INPUT_DATI_TORNEO,2,0)</f>
-        <v>Torneo dell’Estate</v>
+        <f>VLOOKUP("NOME_TORNEO",INPUT_DATI_TORNEO,2,0)&amp;" "&amp;VLOOKUP("STAGIONE",INPUT_DATI_TORNEO,2,0)</f>
+        <v>Torneo dell’Estate 2021</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -24990,7 +25029,7 @@
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -25030,52 +25069,52 @@
     </row>
     <row r="4" spans="1:17" ht="15.95" customHeight="1">
       <c r="A4" s="167" t="s">
+        <v>394</v>
+      </c>
+      <c r="B4" s="168" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="168" t="s">
+        <v>395</v>
+      </c>
+      <c r="D4" s="168" t="s">
+        <v>396</v>
+      </c>
+      <c r="E4" s="168" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="168" t="s">
+        <v>397</v>
+      </c>
+      <c r="G4" s="168" t="s">
         <v>398</v>
       </c>
-      <c r="B4" s="168" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="168" t="s">
+      <c r="H4" s="169" t="s">
         <v>399</v>
       </c>
-      <c r="D4" s="168" t="s">
+      <c r="J4" s="170" t="s">
         <v>400</v>
       </c>
-      <c r="E4" s="168" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="168" t="s">
-        <v>401</v>
-      </c>
-      <c r="G4" s="168" t="s">
-        <v>402</v>
-      </c>
-      <c r="H4" s="169" t="s">
-        <v>403</v>
-      </c>
-      <c r="J4" s="170" t="s">
-        <v>404</v>
-      </c>
       <c r="K4" s="171" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L4" s="171" t="s">
+        <v>395</v>
+      </c>
+      <c r="M4" s="171" t="s">
+        <v>396</v>
+      </c>
+      <c r="N4" s="171" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="171" t="s">
+        <v>397</v>
+      </c>
+      <c r="P4" s="171" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q4" s="172" t="s">
         <v>399</v>
-      </c>
-      <c r="M4" s="171" t="s">
-        <v>400</v>
-      </c>
-      <c r="N4" s="171" t="s">
-        <v>48</v>
-      </c>
-      <c r="O4" s="171" t="s">
-        <v>401</v>
-      </c>
-      <c r="P4" s="171" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q4" s="172" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15.95" customHeight="1">
@@ -25354,52 +25393,52 @@
     </row>
     <row r="10" spans="1:17" ht="15.95" customHeight="1">
       <c r="A10" s="185" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B10" s="186" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C10" s="186" t="s">
+        <v>395</v>
+      </c>
+      <c r="D10" s="186" t="s">
+        <v>396</v>
+      </c>
+      <c r="E10" s="186" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="186" t="s">
+        <v>397</v>
+      </c>
+      <c r="G10" s="186" t="s">
+        <v>398</v>
+      </c>
+      <c r="H10" s="187" t="s">
         <v>399</v>
       </c>
-      <c r="D10" s="186" t="s">
-        <v>400</v>
-      </c>
-      <c r="E10" s="186" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="186" t="s">
-        <v>401</v>
-      </c>
-      <c r="G10" s="186" t="s">
+      <c r="J10" s="188" t="s">
         <v>402</v>
       </c>
-      <c r="H10" s="187" t="s">
-        <v>403</v>
-      </c>
-      <c r="J10" s="188" t="s">
-        <v>406</v>
-      </c>
       <c r="K10" s="189" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L10" s="189" t="s">
+        <v>395</v>
+      </c>
+      <c r="M10" s="189" t="s">
+        <v>396</v>
+      </c>
+      <c r="N10" s="189" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" s="189" t="s">
+        <v>397</v>
+      </c>
+      <c r="P10" s="189" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q10" s="190" t="s">
         <v>399</v>
-      </c>
-      <c r="M10" s="189" t="s">
-        <v>400</v>
-      </c>
-      <c r="N10" s="189" t="s">
-        <v>48</v>
-      </c>
-      <c r="O10" s="189" t="s">
-        <v>401</v>
-      </c>
-      <c r="P10" s="189" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q10" s="190" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="15.95" customHeight="1">
@@ -25678,52 +25717,52 @@
     </row>
     <row r="16" spans="1:17" ht="15.95" customHeight="1">
       <c r="A16" s="191" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B16" s="192" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C16" s="192" t="s">
+        <v>395</v>
+      </c>
+      <c r="D16" s="192" t="s">
+        <v>396</v>
+      </c>
+      <c r="E16" s="192" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="192" t="s">
+        <v>397</v>
+      </c>
+      <c r="G16" s="192" t="s">
+        <v>398</v>
+      </c>
+      <c r="H16" s="193" t="s">
         <v>399</v>
       </c>
-      <c r="D16" s="192" t="s">
-        <v>400</v>
-      </c>
-      <c r="E16" s="192" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="192" t="s">
-        <v>401</v>
-      </c>
-      <c r="G16" s="192" t="s">
-        <v>402</v>
-      </c>
-      <c r="H16" s="193" t="s">
-        <v>403</v>
-      </c>
       <c r="J16" s="194" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="K16" s="195" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L16" s="195" t="s">
+        <v>395</v>
+      </c>
+      <c r="M16" s="195" t="s">
+        <v>396</v>
+      </c>
+      <c r="N16" s="195" t="s">
+        <v>44</v>
+      </c>
+      <c r="O16" s="195" t="s">
+        <v>397</v>
+      </c>
+      <c r="P16" s="195" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q16" s="196" t="s">
         <v>399</v>
-      </c>
-      <c r="M16" s="195" t="s">
-        <v>400</v>
-      </c>
-      <c r="N16" s="195" t="s">
-        <v>48</v>
-      </c>
-      <c r="O16" s="195" t="s">
-        <v>401</v>
-      </c>
-      <c r="P16" s="195" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q16" s="196" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.95" customHeight="1">
@@ -26002,52 +26041,52 @@
     </row>
     <row r="22" spans="1:17" ht="15.95" customHeight="1">
       <c r="A22" s="197" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B22" s="198" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C22" s="198" t="s">
+        <v>395</v>
+      </c>
+      <c r="D22" s="198" t="s">
+        <v>396</v>
+      </c>
+      <c r="E22" s="198" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="198" t="s">
+        <v>397</v>
+      </c>
+      <c r="G22" s="198" t="s">
+        <v>398</v>
+      </c>
+      <c r="H22" s="199" t="s">
         <v>399</v>
       </c>
-      <c r="D22" s="198" t="s">
-        <v>400</v>
-      </c>
-      <c r="E22" s="198" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="198" t="s">
-        <v>401</v>
-      </c>
-      <c r="G22" s="198" t="s">
-        <v>402</v>
-      </c>
-      <c r="H22" s="199" t="s">
-        <v>403</v>
-      </c>
       <c r="J22" s="200" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="K22" s="201" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L22" s="201" t="s">
+        <v>395</v>
+      </c>
+      <c r="M22" s="201" t="s">
+        <v>396</v>
+      </c>
+      <c r="N22" s="201" t="s">
+        <v>44</v>
+      </c>
+      <c r="O22" s="201" t="s">
+        <v>397</v>
+      </c>
+      <c r="P22" s="201" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q22" s="202" t="s">
         <v>399</v>
-      </c>
-      <c r="M22" s="201" t="s">
-        <v>400</v>
-      </c>
-      <c r="N22" s="201" t="s">
-        <v>48</v>
-      </c>
-      <c r="O22" s="201" t="s">
-        <v>401</v>
-      </c>
-      <c r="P22" s="201" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q22" s="202" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="15.95" customHeight="1">
@@ -26475,7 +26514,6 @@
       <c r="H42"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="2">
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -26903,8 +26941,8 @@
     <row r="1" spans="1:9" ht="20.25">
       <c r="A1" s="206"/>
       <c r="B1" s="5" t="str">
-        <f>VLOOKUP("NOME_TORNEO",INPUT_DATI_TORNEO,2,0)</f>
-        <v>Torneo dell’Estate</v>
+        <f>VLOOKUP("NOME_TORNEO",INPUT_DATI_TORNEO,2,0)&amp;" "&amp;VLOOKUP("STAGIONE",INPUT_DATI_TORNEO,2,0)</f>
+        <v>Torneo dell’Estate 2021</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -26917,7 +26955,7 @@
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="206"/>
       <c r="B2" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -26930,26 +26968,26 @@
     <row r="3" spans="1:9" ht="15.95" customHeight="1">
       <c r="A3" s="206"/>
       <c r="B3" s="157" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C3" s="157" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D3" s="157" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="157" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H3" s="157" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I3" s="157" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.95" customHeight="1">
@@ -26986,7 +27024,7 @@
       </c>
       <c r="I4" s="211" t="str">
         <f t="shared" ref="I4:I35" si="7">VLOOKUP(A4,INPUT_DATE_E_RISULTATI_2A_FASE,11,0)</f>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.95" customHeight="1">
@@ -27023,7 +27061,7 @@
       </c>
       <c r="I5" s="211" t="str">
         <f t="shared" si="7"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.95" customHeight="1">
@@ -27060,7 +27098,7 @@
       </c>
       <c r="I6" s="211" t="str">
         <f t="shared" si="7"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.95" customHeight="1">
@@ -27097,7 +27135,7 @@
       </c>
       <c r="I7" s="211" t="str">
         <f t="shared" si="7"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.95" customHeight="1">
@@ -27134,7 +27172,7 @@
       </c>
       <c r="I8" s="211" t="str">
         <f t="shared" si="7"/>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.95" customHeight="1">
@@ -27171,7 +27209,7 @@
       </c>
       <c r="I9" s="211" t="str">
         <f t="shared" si="7"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.95" customHeight="1">
@@ -27208,7 +27246,7 @@
       </c>
       <c r="I10" s="211" t="str">
         <f t="shared" si="7"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.95" customHeight="1">
@@ -27245,7 +27283,7 @@
       </c>
       <c r="I11" s="211" t="str">
         <f t="shared" si="7"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.95" customHeight="1">
@@ -27282,7 +27320,7 @@
       </c>
       <c r="I12" s="165" t="str">
         <f t="shared" si="7"/>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.95" customHeight="1">
@@ -27319,7 +27357,7 @@
       </c>
       <c r="I13" s="211" t="str">
         <f t="shared" si="7"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.95" customHeight="1">
@@ -27356,7 +27394,7 @@
       </c>
       <c r="I14" s="211" t="str">
         <f t="shared" si="7"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.95" customHeight="1">
@@ -27393,7 +27431,7 @@
       </c>
       <c r="I15" s="211" t="str">
         <f t="shared" si="7"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.95" customHeight="1">
@@ -27430,7 +27468,7 @@
       </c>
       <c r="I16" s="211" t="str">
         <f t="shared" si="7"/>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.95" customHeight="1">
@@ -27467,7 +27505,7 @@
       </c>
       <c r="I17" s="211" t="str">
         <f t="shared" si="7"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.95" customHeight="1">
@@ -27504,7 +27542,7 @@
       </c>
       <c r="I18" s="211" t="str">
         <f t="shared" si="7"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.95" customHeight="1">
@@ -27541,7 +27579,7 @@
       </c>
       <c r="I19" s="211" t="str">
         <f t="shared" si="7"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.95" customHeight="1">
@@ -27578,7 +27616,7 @@
       </c>
       <c r="I20" s="211" t="str">
         <f t="shared" si="7"/>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.95" customHeight="1">
@@ -27615,7 +27653,7 @@
       </c>
       <c r="I21" s="211" t="str">
         <f t="shared" si="7"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.95" customHeight="1">
@@ -27652,7 +27690,7 @@
       </c>
       <c r="I22" s="211" t="str">
         <f t="shared" si="7"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.95" customHeight="1">
@@ -27689,7 +27727,7 @@
       </c>
       <c r="I23" s="211" t="str">
         <f t="shared" si="7"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.95" customHeight="1">
@@ -27726,7 +27764,7 @@
       </c>
       <c r="I24" s="211" t="str">
         <f t="shared" si="7"/>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.95" customHeight="1">
@@ -27763,7 +27801,7 @@
       </c>
       <c r="I25" s="211" t="str">
         <f t="shared" si="7"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.95" customHeight="1">
@@ -27800,7 +27838,7 @@
       </c>
       <c r="I26" s="211" t="str">
         <f t="shared" si="7"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.95" customHeight="1">
@@ -27837,7 +27875,7 @@
       </c>
       <c r="I27" s="211" t="str">
         <f t="shared" si="7"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.95" customHeight="1">
@@ -27874,7 +27912,7 @@
       </c>
       <c r="I28" s="211" t="str">
         <f t="shared" si="7"/>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.95" customHeight="1">
@@ -27911,7 +27949,7 @@
       </c>
       <c r="I29" s="211" t="str">
         <f t="shared" si="7"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.95" customHeight="1">
@@ -27948,7 +27986,7 @@
       </c>
       <c r="I30" s="211" t="str">
         <f t="shared" si="7"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.95" customHeight="1">
@@ -27985,7 +28023,7 @@
       </c>
       <c r="I31" s="211" t="str">
         <f t="shared" si="7"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.95" customHeight="1">
@@ -28022,7 +28060,7 @@
       </c>
       <c r="I32" s="211" t="str">
         <f t="shared" si="7"/>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.95" customHeight="1">
@@ -28059,7 +28097,7 @@
       </c>
       <c r="I33" s="211" t="str">
         <f t="shared" si="7"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.95" customHeight="1">
@@ -28096,7 +28134,7 @@
       </c>
       <c r="I34" s="211" t="str">
         <f t="shared" si="7"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.95" customHeight="1">
@@ -28133,7 +28171,7 @@
       </c>
       <c r="I35" s="211" t="str">
         <f t="shared" si="7"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.95" customHeight="1">
@@ -28170,7 +28208,7 @@
       </c>
       <c r="I36" s="211" t="str">
         <f t="shared" ref="I36:I67" si="15">VLOOKUP(A36,INPUT_DATE_E_RISULTATI_2A_FASE,11,0)</f>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.95" customHeight="1">
@@ -28207,7 +28245,7 @@
       </c>
       <c r="I37" s="211" t="str">
         <f t="shared" si="15"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.95" customHeight="1">
@@ -28244,7 +28282,7 @@
       </c>
       <c r="I38" s="211" t="str">
         <f t="shared" si="15"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.95" customHeight="1">
@@ -28281,7 +28319,7 @@
       </c>
       <c r="I39" s="211" t="str">
         <f t="shared" si="15"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.95" customHeight="1">
@@ -28318,7 +28356,7 @@
       </c>
       <c r="I40" s="211" t="str">
         <f t="shared" si="15"/>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.95" customHeight="1">
@@ -28355,7 +28393,7 @@
       </c>
       <c r="I41" s="211" t="str">
         <f t="shared" si="15"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.95" customHeight="1">
@@ -28392,7 +28430,7 @@
       </c>
       <c r="I42" s="211" t="str">
         <f t="shared" si="15"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.95" customHeight="1">
@@ -28429,7 +28467,7 @@
       </c>
       <c r="I43" s="211" t="str">
         <f t="shared" si="15"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15.95" customHeight="1">
@@ -28466,7 +28504,7 @@
       </c>
       <c r="I44" s="211" t="str">
         <f t="shared" si="15"/>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.95" customHeight="1">
@@ -28503,7 +28541,7 @@
       </c>
       <c r="I45" s="211" t="str">
         <f t="shared" si="15"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.95" customHeight="1">
@@ -28540,7 +28578,7 @@
       </c>
       <c r="I46" s="211" t="str">
         <f t="shared" si="15"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.95" customHeight="1">
@@ -28577,7 +28615,7 @@
       </c>
       <c r="I47" s="211" t="str">
         <f t="shared" si="15"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1">
@@ -28614,7 +28652,7 @@
       </c>
       <c r="I48" s="211" t="str">
         <f t="shared" si="15"/>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.95" customHeight="1">
@@ -28651,7 +28689,7 @@
       </c>
       <c r="I49" s="211" t="str">
         <f t="shared" si="15"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15.95" customHeight="1">
@@ -28688,7 +28726,7 @@
       </c>
       <c r="I50" s="211" t="str">
         <f t="shared" si="15"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15.95" customHeight="1">
@@ -28725,7 +28763,7 @@
       </c>
       <c r="I51" s="211" t="str">
         <f t="shared" si="15"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.95" customHeight="1">
@@ -28762,7 +28800,7 @@
       </c>
       <c r="I52" s="211" t="str">
         <f t="shared" si="15"/>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -28799,7 +28837,7 @@
       </c>
       <c r="I53" s="211" t="str">
         <f t="shared" si="15"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -28836,7 +28874,7 @@
       </c>
       <c r="I54" s="211" t="str">
         <f t="shared" si="15"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -28873,7 +28911,7 @@
       </c>
       <c r="I55" s="211" t="str">
         <f t="shared" si="15"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -28910,7 +28948,7 @@
       </c>
       <c r="I56" s="211" t="str">
         <f t="shared" si="15"/>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -28947,7 +28985,7 @@
       </c>
       <c r="I57" s="211" t="str">
         <f t="shared" si="15"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -28984,7 +29022,7 @@
       </c>
       <c r="I58" s="211" t="str">
         <f t="shared" si="15"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -29021,7 +29059,7 @@
       </c>
       <c r="I59" s="211" t="str">
         <f t="shared" si="15"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -29058,7 +29096,7 @@
       </c>
       <c r="I60" s="211" t="str">
         <f t="shared" si="15"/>
-        <v>Cristo Re 1</v>
+        <v>CAMPO I</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -29095,7 +29133,7 @@
       </c>
       <c r="I61" s="211" t="str">
         <f t="shared" si="15"/>
-        <v>Cristo Re 2</v>
+        <v>CAMPO II</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -29132,7 +29170,7 @@
       </c>
       <c r="I62" s="211" t="str">
         <f t="shared" si="15"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -29169,7 +29207,7 @@
       </c>
       <c r="I63" s="211" t="str">
         <f t="shared" si="15"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -29206,7 +29244,7 @@
       </c>
       <c r="I64" s="211" t="str">
         <f t="shared" si="15"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -29243,7 +29281,7 @@
       </c>
       <c r="I65" s="211" t="str">
         <f t="shared" si="15"/>
-        <v>Nuova Scuola</v>
+        <v>CAMPO IV</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -29280,7 +29318,7 @@
       </c>
       <c r="I66" s="211" t="str">
         <f t="shared" si="15"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -29317,7 +29355,7 @@
       </c>
       <c r="I67" s="211" t="str">
         <f t="shared" si="15"/>
-        <v>Basket Giovane</v>
+        <v>CAMPO III</v>
       </c>
     </row>
   </sheetData>
@@ -29351,7 +29389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BL37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
@@ -29376,8 +29414,8 @@
   <sheetData>
     <row r="1" spans="1:19" ht="20.25">
       <c r="A1" s="4" t="str">
-        <f>VLOOKUP("NOME_TORNEO",INPUT_DATI_TORNEO,2,0)</f>
-        <v>Torneo dell’Estate</v>
+        <f>VLOOKUP("NOME_TORNEO",INPUT_DATI_TORNEO,2,0)&amp;" "&amp;VLOOKUP("STAGIONE",INPUT_DATI_TORNEO,2,0)</f>
+        <v>Torneo dell’Estate 2021</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -29400,7 +29438,7 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -29444,28 +29482,28 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="3" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="213"/>
       <c r="E4" s="212"/>
       <c r="F4" s="3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="212"/>
       <c r="J4" s="212"/>
       <c r="K4" s="3" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="212"/>
       <c r="O4" s="212"/>
       <c r="P4" s="3" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
@@ -29516,7 +29554,7 @@
     <row r="7" spans="1:19">
       <c r="A7" s="216" t="str">
         <f>TEXT(VLOOKUP(A8,INPUT_DATE_E_RISULTATI_2A_FASE,8,FALSE()),"GGG G MMM")&amp;" "&amp;TEXT(VLOOKUP(A8,INPUT_DATE_E_RISULTATI_2A_FASE,9,FALSE()),"h:mm")&amp;" ("&amp;VLOOKUP(A8,INPUT_DATE_E_RISULTATI_2A_FASE,11,FALSE())&amp;")"</f>
-        <v>gio 10 giu 9:00 (Cristo Re 1)</v>
+        <v>gio 10 giu 9:00 (CAMPO I)</v>
       </c>
       <c r="B7" s="215"/>
       <c r="C7" s="217"/>
@@ -29587,7 +29625,7 @@
       <c r="E9" s="212"/>
       <c r="F9" s="224" t="str">
         <f>TEXT(VLOOKUP(F10,INPUT_DATE_E_RISULTATI_2A_FASE,8,FALSE()),"GGG G MMM")&amp;" "&amp;TEXT(VLOOKUP(F10,INPUT_DATE_E_RISULTATI_2A_FASE,9,FALSE()),"h:mm")&amp;" ("&amp;VLOOKUP(F10,INPUT_DATE_E_RISULTATI_2A_FASE,11,FALSE())&amp;")"</f>
-        <v>ven 11 giu 9:00 (Cristo Re 1)</v>
+        <v>ven 11 giu 9:00 (CAMPO I)</v>
       </c>
       <c r="G9" s="212"/>
       <c r="H9" s="217"/>
@@ -29639,7 +29677,7 @@
     <row r="11" spans="1:19">
       <c r="A11" s="224" t="str">
         <f>TEXT(VLOOKUP(A12,INPUT_DATE_E_RISULTATI_2A_FASE,8,FALSE()),"GGG G MMM")&amp;" "&amp;TEXT(VLOOKUP(A12,INPUT_DATE_E_RISULTATI_2A_FASE,9,FALSE()),"h:mm")&amp;" ("&amp;VLOOKUP(A12,INPUT_DATE_E_RISULTATI_2A_FASE,11,FALSE())&amp;")"</f>
-        <v>gio 10 giu 11:00 (Cristo Re 1)</v>
+        <v>gio 10 giu 11:00 (CAMPO I)</v>
       </c>
       <c r="B11" s="215"/>
       <c r="C11" s="227"/>
@@ -29724,7 +29762,7 @@
       <c r="J13" s="212"/>
       <c r="K13" s="232" t="str">
         <f>TEXT(VLOOKUP(K14,INPUT_DATE_E_RISULTATI_2A_FASE,8,FALSE()),"GGG G MMM")&amp;" "&amp;TEXT(VLOOKUP(K14,INPUT_DATE_E_RISULTATI_2A_FASE,9,FALSE()),"h:mm")&amp;" ("&amp;VLOOKUP(K14,INPUT_DATE_E_RISULTATI_2A_FASE,11,FALSE())&amp;")"</f>
-        <v>ven 11 giu 20:30 (Basket Giovane)</v>
+        <v>ven 11 giu 20:30 (CAMPO III)</v>
       </c>
       <c r="L13" s="212"/>
       <c r="M13" s="212"/>
@@ -29771,7 +29809,7 @@
     <row r="15" spans="1:19">
       <c r="A15" s="224" t="str">
         <f>TEXT(VLOOKUP(A16,INPUT_DATE_E_RISULTATI_2A_FASE,8,FALSE()),"GGG G MMM")&amp;" "&amp;TEXT(VLOOKUP(A16,INPUT_DATE_E_RISULTATI_2A_FASE,9,FALSE()),"h:mm")&amp;" ("&amp;VLOOKUP(A16,INPUT_DATE_E_RISULTATI_2A_FASE,11,FALSE())&amp;")"</f>
-        <v>gio 10 giu 15:30 (Cristo Re 1)</v>
+        <v>gio 10 giu 15:30 (CAMPO I)</v>
       </c>
       <c r="B15" s="215"/>
       <c r="C15" s="227"/>
@@ -29851,7 +29889,7 @@
       <c r="E17" s="212"/>
       <c r="F17" s="224" t="str">
         <f>TEXT(VLOOKUP(F18,INPUT_DATE_E_RISULTATI_2A_FASE,8,FALSE()),"GGG G MMM")&amp;" "&amp;TEXT(VLOOKUP(F18,INPUT_DATE_E_RISULTATI_2A_FASE,9,FALSE()),"h:mm")&amp;" ("&amp;VLOOKUP(F18,INPUT_DATE_E_RISULTATI_2A_FASE,11,FALSE())&amp;")"</f>
-        <v>ven 11 giu 9:00 (Cristo Re 2)</v>
+        <v>ven 11 giu 9:00 (CAMPO II)</v>
       </c>
       <c r="G17" s="212"/>
       <c r="H17" s="227"/>
@@ -29903,7 +29941,7 @@
     <row r="19" spans="1:19">
       <c r="A19" s="224" t="str">
         <f>TEXT(VLOOKUP(A20,INPUT_DATE_E_RISULTATI_2A_FASE,8,FALSE()),"GGG G MMM")&amp;" "&amp;TEXT(VLOOKUP(A20,INPUT_DATE_E_RISULTATI_2A_FASE,9,FALSE()),"h:mm")&amp;" ("&amp;VLOOKUP(A20,INPUT_DATE_E_RISULTATI_2A_FASE,11,FALSE())&amp;")"</f>
-        <v>gio 10 giu 17:00 (Cristo Re 1)</v>
+        <v>gio 10 giu 17:00 (CAMPO I)</v>
       </c>
       <c r="B19" s="215"/>
       <c r="C19" s="227"/>
@@ -29963,7 +30001,7 @@
       <c r="O20" s="212"/>
       <c r="P20" s="232" t="str">
         <f>TEXT(VLOOKUP(P21,INPUT_DATE_E_RISULTATI_2A_FASE,8,FALSE()),"GGG G MMM")&amp;" "&amp;TEXT(VLOOKUP(P21,INPUT_DATE_E_RISULTATI_2A_FASE,9,FALSE()),"h:mm")&amp;" ("&amp;VLOOKUP(P21,INPUT_DATE_E_RISULTATI_2A_FASE,11,FALSE())&amp;")"</f>
-        <v>dom 13 giu 10:30 (Basket Giovane)</v>
+        <v>dom 13 giu 10:30 (CAMPO III)</v>
       </c>
       <c r="Q20" s="212"/>
       <c r="R20" s="212"/>
@@ -30044,7 +30082,7 @@
     <row r="23" spans="1:19">
       <c r="A23" s="246" t="str">
         <f>TEXT(VLOOKUP(A24,INPUT_DATE_E_RISULTATI_2A_FASE,8,FALSE()),"GGG G MMM")&amp;" "&amp;TEXT(VLOOKUP(A24,INPUT_DATE_E_RISULTATI_2A_FASE,9,FALSE()),"h:mm")&amp;" ("&amp;VLOOKUP(A24,INPUT_DATE_E_RISULTATI_2A_FASE,11,FALSE())&amp;")"</f>
-        <v>gio 10 giu 9:00 (Cristo Re 2)</v>
+        <v>gio 10 giu 9:00 (CAMPO II)</v>
       </c>
       <c r="B23" s="246"/>
       <c r="C23" s="246"/>
@@ -30115,7 +30153,7 @@
       <c r="E25" s="212"/>
       <c r="F25" s="232" t="str">
         <f>TEXT(VLOOKUP(F26,INPUT_DATE_E_RISULTATI_2A_FASE,8,FALSE()),"GGG G MMM")&amp;" "&amp;TEXT(VLOOKUP(F26,INPUT_DATE_E_RISULTATI_2A_FASE,9,FALSE()),"h:mm")&amp;" ("&amp;VLOOKUP(F26,INPUT_DATE_E_RISULTATI_2A_FASE,11,FALSE())&amp;")"</f>
-        <v>ven 11 giu 11:00 (Cristo Re 1)</v>
+        <v>ven 11 giu 11:00 (CAMPO I)</v>
       </c>
       <c r="G25" s="212"/>
       <c r="H25" s="225"/>
@@ -30126,9 +30164,12 @@
       <c r="M25" s="225"/>
       <c r="N25" s="226"/>
       <c r="O25" s="212"/>
-      <c r="P25" s="212"/>
-      <c r="Q25" s="212"/>
-      <c r="R25" s="212"/>
+      <c r="P25" s="247" t="str">
+        <f>"Campione "&amp;VLOOKUP("STAGIONE",INPUT_DATI_TORNEO,2,0)</f>
+        <v>Campione 2021</v>
+      </c>
+      <c r="Q25" s="247"/>
+      <c r="R25" s="247"/>
       <c r="S25" s="213"/>
     </row>
     <row r="26" spans="1:19">
@@ -30159,15 +30200,18 @@
       <c r="M26" s="225"/>
       <c r="N26" s="226"/>
       <c r="O26" s="212"/>
-      <c r="P26" s="212"/>
-      <c r="Q26" s="212"/>
-      <c r="R26" s="212"/>
+      <c r="P26" s="248" t="str">
+        <f ca="1">VLOOKUP("1-2/1",B_PARTITE_2A_FASE_PER_CODICE,11,FALSE())</f>
+        <v>Leoni</v>
+      </c>
+      <c r="Q26" s="248"/>
+      <c r="R26" s="248"/>
       <c r="S26" s="213"/>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="224" t="str">
         <f>TEXT(VLOOKUP(A28,INPUT_DATE_E_RISULTATI_2A_FASE,8,FALSE()),"GGG G MMM")&amp;" "&amp;TEXT(VLOOKUP(A28,INPUT_DATE_E_RISULTATI_2A_FASE,9,FALSE()),"h:mm")&amp;" ("&amp;VLOOKUP(A28,INPUT_DATE_E_RISULTATI_2A_FASE,11,FALSE())&amp;")"</f>
-        <v>gio 10 giu 11:00 (Cristo Re 2)</v>
+        <v>gio 10 giu 11:00 (CAMPO II)</v>
       </c>
       <c r="B27" s="215"/>
       <c r="C27" s="227"/>
@@ -30192,9 +30236,9 @@
       <c r="M27" s="225"/>
       <c r="N27" s="226"/>
       <c r="O27" s="212"/>
-      <c r="P27" s="212"/>
-      <c r="Q27" s="212"/>
-      <c r="R27" s="212"/>
+      <c r="P27" s="248"/>
+      <c r="Q27" s="248"/>
+      <c r="R27" s="248"/>
       <c r="S27" s="213"/>
     </row>
     <row r="28" spans="1:19">
@@ -30225,9 +30269,9 @@
       <c r="M28" s="225"/>
       <c r="N28" s="226"/>
       <c r="O28" s="212"/>
-      <c r="P28" s="212"/>
-      <c r="Q28" s="212"/>
-      <c r="R28" s="212"/>
+      <c r="P28" s="248"/>
+      <c r="Q28" s="248"/>
+      <c r="R28" s="248"/>
       <c r="S28" s="213"/>
     </row>
     <row r="29" spans="1:19">
@@ -30252,7 +30296,7 @@
       <c r="J29" s="212"/>
       <c r="K29" s="232" t="str">
         <f>TEXT(VLOOKUP(K30,INPUT_DATE_E_RISULTATI_2A_FASE,8,FALSE()),"GGG G MMM")&amp;" "&amp;TEXT(VLOOKUP(K30,INPUT_DATE_E_RISULTATI_2A_FASE,9,FALSE()),"h:mm")&amp;" ("&amp;VLOOKUP(K30,INPUT_DATE_E_RISULTATI_2A_FASE,11,FALSE())&amp;")"</f>
-        <v>ven 11 giu 22:00 (Basket Giovane)</v>
+        <v>ven 11 giu 22:00 (CAMPO III)</v>
       </c>
       <c r="L29" s="212"/>
       <c r="M29" s="225"/>
@@ -30299,7 +30343,7 @@
     <row r="31" spans="1:19">
       <c r="A31" s="224" t="str">
         <f>TEXT(VLOOKUP(A32,INPUT_DATE_E_RISULTATI_2A_FASE,8,FALSE()),"GGG G MMM")&amp;" "&amp;TEXT(VLOOKUP(A32,INPUT_DATE_E_RISULTATI_2A_FASE,9,FALSE()),"h:mm")&amp;" ("&amp;VLOOKUP(A32,INPUT_DATE_E_RISULTATI_2A_FASE,11,FALSE())&amp;")"</f>
-        <v>gio 10 giu 15:30 (Cristo Re 2)</v>
+        <v>gio 10 giu 15:30 (CAMPO II)</v>
       </c>
       <c r="B31" s="215"/>
       <c r="C31" s="227"/>
@@ -30379,7 +30423,7 @@
       <c r="E33" s="212"/>
       <c r="F33" s="232" t="str">
         <f>TEXT(VLOOKUP(F34,INPUT_DATE_E_RISULTATI_2A_FASE,8,FALSE()),"GGG G MMM")&amp;" "&amp;TEXT(VLOOKUP(F34,INPUT_DATE_E_RISULTATI_2A_FASE,9,FALSE()),"h:mm")&amp;" ("&amp;VLOOKUP(F34,INPUT_DATE_E_RISULTATI_2A_FASE,11,FALSE())&amp;")"</f>
-        <v>ven 11 giu 11:00 (Cristo Re 2)</v>
+        <v>ven 11 giu 11:00 (CAMPO II)</v>
       </c>
       <c r="G33" s="212"/>
       <c r="H33" s="227"/>
@@ -30431,7 +30475,7 @@
     <row r="35" spans="1:19">
       <c r="A35" s="224" t="str">
         <f>TEXT(VLOOKUP(A36,INPUT_DATE_E_RISULTATI_2A_FASE,8,FALSE()),"GGG G MMM")&amp;" "&amp;TEXT(VLOOKUP(A36,INPUT_DATE_E_RISULTATI_2A_FASE,9,FALSE()),"h:mm")&amp;" ("&amp;VLOOKUP(A36,INPUT_DATE_E_RISULTATI_2A_FASE,11,FALSE())&amp;")"</f>
-        <v>gio 10 giu 17:00 (Cristo Re 2)</v>
+        <v>gio 10 giu 17:00 (CAMPO II)</v>
       </c>
       <c r="B35" s="239"/>
       <c r="C35" s="240"/>
@@ -30526,18 +30570,20 @@
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
-  <mergeCells count="22">
+  <mergeCells count="24">
+    <mergeCell ref="F34:F35"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="F26:F27"/>
+    <mergeCell ref="P26:R28"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="K30:K31"/>
     <mergeCell ref="A32:A33"/>
-    <mergeCell ref="F34:F35"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="P21:P22"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A24:A25"/>
+    <mergeCell ref="P25:R25"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="A12:A13"/>
@@ -30755,29 +30801,29 @@
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="15" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="28" style="15" customWidth="1"/>
     <col min="3" max="64" width="11.5703125" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20.25">
       <c r="A1" s="8" t="str">
-        <f>VLOOKUP("NOME_TORNEO",INPUT_DATI_TORNEO,2,0)</f>
-        <v>Torneo dell’Estate</v>
+        <f>VLOOKUP("NOME_TORNEO",INPUT_DATI_TORNEO,2,0)&amp;" "&amp;VLOOKUP("STAGIONE",INPUT_DATI_TORNEO,2,0)</f>
+        <v>Torneo dell’Estate 2021</v>
       </c>
       <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:2" ht="15.95" customHeight="1">
       <c r="A3" s="157" t="s">
-        <v>121</v>
+        <v>390</v>
       </c>
       <c r="B3" s="157" t="s">
-        <v>394</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.95" customHeight="1">
